--- a/MasterDegree_StudyPlan.xlsx
+++ b/MasterDegree_StudyPlan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\GitHub\Repo\Master-courses\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49BA1883-0440-4BE4-A920-BFC017D6B201}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAB1BB1B-BEEE-4671-B654-4245DC4C0C62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9CCEDFCE-005C-40C2-92E8-4E076261F21E}"/>
   </bookViews>
@@ -554,13 +554,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1305,8 +1305,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89E4B725-BD0D-4291-9550-3225AF05D5FC}">
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1325,36 +1325,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="29"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
+      <c r="A2" s="31"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="29"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
+      <c r="A3" s="31"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
     </row>
     <row r="4" spans="1:11" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
@@ -1381,7 +1381,7 @@
       <c r="H4" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="J4" s="31" t="s">
+      <c r="J4" s="30" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1433,7 +1433,9 @@
       </c>
       <c r="H6" s="10"/>
       <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
+      <c r="J6" s="29" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="7" spans="1:11" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
@@ -1483,6 +1485,7 @@
         <v>6</v>
       </c>
       <c r="H8" s="10"/>
+      <c r="J8" s="2"/>
     </row>
     <row r="9" spans="1:11" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
@@ -1679,7 +1682,7 @@
       <c r="H16" s="15"/>
       <c r="K16" s="2"/>
     </row>
-    <row r="17" spans="1:10" ht="54.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" ht="54.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="23" t="s">
         <v>21</v>
       </c>
@@ -1703,11 +1706,8 @@
       </c>
       <c r="H17" s="27"/>
       <c r="I17" s="22"/>
-      <c r="J17" s="30" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:9" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="16" t="s">
         <v>43</v>
       </c>
@@ -1731,7 +1731,7 @@
       </c>
       <c r="H18" s="15"/>
     </row>
-    <row r="19" spans="1:10" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="16" t="s">
         <v>35</v>
       </c>
@@ -1755,7 +1755,7 @@
       </c>
       <c r="H19" s="15"/>
     </row>
-    <row r="20" spans="1:10" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="16" t="s">
         <v>37</v>
       </c>
@@ -1779,7 +1779,7 @@
       </c>
       <c r="H20" s="15"/>
     </row>
-    <row r="21" spans="1:10" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="19" t="s">
         <v>38</v>
       </c>
@@ -1803,7 +1803,7 @@
       </c>
       <c r="H21" s="21"/>
     </row>
-    <row r="22" spans="1:10" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>

--- a/MasterDegree_StudyPlan.xlsx
+++ b/MasterDegree_StudyPlan.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\GitHub\Repo\Master-courses\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAB1BB1B-BEEE-4671-B654-4245DC4C0C62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE139ED0-C53B-4158-B2B6-CEF5859F06DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9CCEDFCE-005C-40C2-92E8-4E076261F21E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="59">
   <si>
     <t>Computability</t>
   </si>
@@ -135,9 +135,6 @@
   </si>
   <si>
     <t>Year</t>
-  </si>
-  <si>
-    <t>Free choice (12 ETCS)</t>
   </si>
   <si>
     <t>X</t>
@@ -202,9 +199,6 @@
     </r>
   </si>
   <si>
-    <t>Project with written essay + oral</t>
-  </si>
-  <si>
     <t>Small project/report + multiple choice test</t>
   </si>
   <si>
@@ -226,9 +220,6 @@
     <t>Simone Soderi</t>
   </si>
   <si>
-    <t>Game Theory (DEI)</t>
-  </si>
-  <si>
     <t>Thomas Marchioro</t>
   </si>
   <si>
@@ -239,6 +230,15 @@
   </si>
   <si>
     <t>KEEP?</t>
+  </si>
+  <si>
+    <t>Free choice (6/12 ETCS)</t>
+  </si>
+  <si>
+    <t>Game Theory</t>
+  </si>
+  <si>
+    <t>Project + oral</t>
   </si>
 </sst>
 </file>
@@ -943,14 +943,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>167639</xdr:rowOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>6860</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>160902</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1098240</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>46602</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -973,12 +973,73 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="10454639"/>
-          <a:ext cx="9732751" cy="5756754"/>
+          <a:off x="0" y="11445240"/>
+          <a:ext cx="8885880" cy="5342502"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>502472</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>53339</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Immagine 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A4B3400-1EC3-788A-6C8C-8842B3647E31}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9494072" y="11445240"/>
+          <a:ext cx="4397187" cy="6233160"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -990,7 +1051,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F8406AB2-104B-4585-87AD-689DBD0111DE}" name="Tabella2" displayName="Tabella2" ref="A4:H21" totalsRowShown="0" headerRowDxfId="12" dataDxfId="10" headerRowBorderDxfId="11" tableBorderDxfId="9" totalsRowBorderDxfId="8">
   <autoFilter ref="A4:H21" xr:uid="{F8406AB2-104B-4585-87AD-689DBD0111DE}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:H21">
-    <sortCondition ref="E4:E21"/>
+    <sortCondition ref="H4:H21"/>
   </sortState>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{030FDB74-6B11-48DD-A02F-DBE88F27EB4F}" name="Course" dataDxfId="7"/>
@@ -1305,8 +1366,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89E4B725-BD0D-4291-9550-3225AF05D5FC}">
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1326,7 +1387,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="31" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -1379,47 +1440,49 @@
         <v>31</v>
       </c>
       <c r="H4" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="J4" s="30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="J4" s="30" t="s">
+      <c r="B5" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" s="14" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="8" t="s">
+      <c r="D5" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="14">
+        <v>1</v>
+      </c>
+      <c r="F5" s="14">
+        <v>1</v>
+      </c>
+      <c r="G5" s="14">
+        <v>6</v>
+      </c>
+      <c r="H5" s="15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="9">
-        <v>1</v>
-      </c>
-      <c r="F5" s="9">
-        <v>1</v>
-      </c>
-      <c r="G5" s="9">
-        <v>6</v>
-      </c>
-      <c r="H5" s="10"/>
-    </row>
-    <row r="6" spans="1:11" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="11" t="s">
-        <v>41</v>
-      </c>
       <c r="B6" s="9" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="9" t="s">
         <v>10</v>
       </c>
       <c r="E6" s="9">
@@ -1434,21 +1497,21 @@
       <c r="H6" s="10"/>
       <c r="I6" s="2"/>
       <c r="J6" s="29" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>48</v>
+        <v>2</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>10</v>
       </c>
       <c r="E7" s="9">
         <v>1</v>
@@ -1464,15 +1527,15 @@
     </row>
     <row r="8" spans="1:11" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="9" t="s">
         <v>46</v>
       </c>
       <c r="E8" s="9">
@@ -1487,18 +1550,18 @@
       <c r="H8" s="10"/>
       <c r="J8" s="2"/>
     </row>
-    <row r="9" spans="1:11" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="8" t="s">
-        <v>54</v>
+    <row r="9" spans="1:11" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>10</v>
+        <v>12</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>58</v>
       </c>
       <c r="E9" s="9">
         <v>1</v>
@@ -1510,10 +1573,11 @@
         <v>6</v>
       </c>
       <c r="H9" s="10"/>
+      <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:11" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B10" s="14" t="s">
         <v>9</v>
@@ -1546,7 +1610,7 @@
         <v>12</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E11" s="14">
         <v>1</v>
@@ -1559,7 +1623,7 @@
       </c>
       <c r="H11" s="15"/>
     </row>
-    <row r="12" spans="1:11" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="13" t="s">
         <v>24</v>
       </c>
@@ -1570,7 +1634,7 @@
         <v>20</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E12" s="14">
         <v>1</v>
@@ -1595,7 +1659,7 @@
         <v>27</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E13" s="14">
         <v>1</v>
@@ -1610,16 +1674,16 @@
     </row>
     <row r="14" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" s="14" t="s">
         <v>49</v>
-      </c>
-      <c r="B14" s="14" t="s">
-        <v>51</v>
       </c>
       <c r="C14" s="14" t="s">
         <v>20</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E14" s="14">
         <v>1</v>
@@ -1635,10 +1699,10 @@
     </row>
     <row r="15" spans="1:11" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="16" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C15" s="14" t="s">
         <v>20</v>
@@ -1674,12 +1738,13 @@
         <v>1</v>
       </c>
       <c r="F16" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G16" s="14">
         <v>3</v>
       </c>
       <c r="H16" s="15"/>
+      <c r="J16" s="2"/>
       <c r="K16" s="2"/>
     </row>
     <row r="17" spans="1:9" ht="54.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -1690,7 +1755,7 @@
         <v>22</v>
       </c>
       <c r="C17" s="24" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="D17" s="25" t="s">
         <v>23</v>
@@ -1709,7 +1774,7 @@
     </row>
     <row r="18" spans="1:9" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B18" s="14" t="s">
         <v>11</v>
@@ -1718,7 +1783,7 @@
         <v>12</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E18" s="18">
         <v>2</v>
@@ -1733,16 +1798,16 @@
     </row>
     <row r="19" spans="1:9" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C19" s="14" t="s">
         <v>2</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E19" s="14">
         <v>2</v>
@@ -1757,16 +1822,16 @@
     </row>
     <row r="20" spans="1:9" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C20" s="14" t="s">
         <v>2</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E20" s="14">
         <v>2</v>
@@ -1781,22 +1846,22 @@
     </row>
     <row r="21" spans="1:9" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C21" s="20" t="s">
         <v>2</v>
       </c>
       <c r="D21" s="20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E21" s="20">
         <v>2</v>
       </c>
       <c r="F21" s="20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G21" s="20">
         <v>33</v>

--- a/MasterDegree_StudyPlan.xlsx
+++ b/MasterDegree_StudyPlan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\GitHub\Repo\Master-courses\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE139ED0-C53B-4158-B2B6-CEF5859F06DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{862A4127-BE23-4F95-B344-6179964AB402}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9CCEDFCE-005C-40C2-92E8-4E076261F21E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="60">
   <si>
     <t>Computability</t>
   </si>
@@ -229,9 +229,6 @@
     <t>DONE</t>
   </si>
   <si>
-    <t>KEEP?</t>
-  </si>
-  <si>
     <t>Free choice (6/12 ETCS)</t>
   </si>
   <si>
@@ -239,6 +236,12 @@
   </si>
   <si>
     <t>Project + oral</t>
+  </si>
+  <si>
+    <t>TO CHANGE</t>
+  </si>
+  <si>
+    <t>PROCESSING</t>
   </si>
 </sst>
 </file>
@@ -329,7 +332,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -348,6 +351,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -472,7 +481,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -551,16 +560,31 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1366,8 +1390,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89E4B725-BD0D-4291-9550-3225AF05D5FC}">
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1386,36 +1410,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="31"/>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
+      <c r="A2" s="30"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="31"/>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
+      <c r="A3" s="30"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
     </row>
     <row r="4" spans="1:11" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
@@ -1442,19 +1466,19 @@
       <c r="H4" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="J4" s="30" t="s">
+      <c r="J4" s="29" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B5" s="14" t="s">
         <v>52</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D5" s="14" t="s">
         <v>10</v>
@@ -1496,8 +1520,8 @@
       </c>
       <c r="H6" s="10"/>
       <c r="I6" s="2"/>
-      <c r="J6" s="29" t="s">
-        <v>55</v>
+      <c r="J6" s="36" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -1523,7 +1547,8 @@
         <v>6</v>
       </c>
       <c r="H7" s="10"/>
-      <c r="J7" s="28"/>
+      <c r="J7" s="35"/>
+      <c r="K7" s="2"/>
     </row>
     <row r="8" spans="1:11" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
@@ -1548,31 +1573,33 @@
         <v>6</v>
       </c>
       <c r="H8" s="10"/>
-      <c r="J8" s="2"/>
+      <c r="J8" s="28" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="9" spans="1:11" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="E9" s="9">
-        <v>1</v>
-      </c>
-      <c r="F9" s="9">
-        <v>1</v>
-      </c>
-      <c r="G9" s="9">
+      <c r="D9" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="E9" s="32">
+        <v>1</v>
+      </c>
+      <c r="F9" s="32">
+        <v>1</v>
+      </c>
+      <c r="G9" s="32">
         <v>6</v>
       </c>
-      <c r="H9" s="10"/>
+      <c r="H9" s="34"/>
       <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:11" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -1598,6 +1625,7 @@
         <v>6</v>
       </c>
       <c r="H10" s="15"/>
+      <c r="J10" s="2"/>
     </row>
     <row r="11" spans="1:11" ht="59.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="16" t="s">
@@ -1755,7 +1783,7 @@
         <v>22</v>
       </c>
       <c r="C17" s="24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D17" s="25" t="s">
         <v>23</v>
@@ -1772,7 +1800,7 @@
       <c r="H17" s="27"/>
       <c r="I17" s="22"/>
     </row>
-    <row r="18" spans="1:9" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="16" t="s">
         <v>42</v>
       </c>

--- a/MasterDegree_StudyPlan.xlsx
+++ b/MasterDegree_StudyPlan.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\GitHub\Repo\Master-courses\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{862A4127-BE23-4F95-B344-6179964AB402}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B178A763-C049-4E37-B039-8FE10F5FC211}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9CCEDFCE-005C-40C2-92E8-4E076261F21E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="61">
   <si>
     <t>Computability</t>
   </si>
@@ -226,9 +226,6 @@
     <t>ATTENDING</t>
   </si>
   <si>
-    <t>DONE</t>
-  </si>
-  <si>
     <t>Free choice (6/12 ETCS)</t>
   </si>
   <si>
@@ -238,10 +235,16 @@
     <t>Project + oral</t>
   </si>
   <si>
-    <t>TO CHANGE</t>
-  </si>
-  <si>
-    <t>PROCESSING</t>
+    <t>PROJECT PHASE</t>
+  </si>
+  <si>
+    <t>PASSED</t>
+  </si>
+  <si>
+    <t>CHOOSE ANOTHER MINOR</t>
+  </si>
+  <si>
+    <t>CHOOSE ANOTHER FREE CHOICE COURSE</t>
   </si>
 </sst>
 </file>
@@ -481,7 +484,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -502,21 +505,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -554,19 +542,10 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -586,6 +565,19 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -880,6 +872,13 @@
       </border>
     </dxf>
     <dxf>
+      <border>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color auto="1"/>
@@ -909,13 +908,6 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -1015,8 +1007,8 @@
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>53339</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>571499</xdr:colOff>
       <xdr:row>59</xdr:row>
       <xdr:rowOff>22860</xdr:rowOff>
     </xdr:to>
@@ -1072,7 +1064,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F8406AB2-104B-4585-87AD-689DBD0111DE}" name="Tabella2" displayName="Tabella2" ref="A4:H21" totalsRowShown="0" headerRowDxfId="12" dataDxfId="10" headerRowBorderDxfId="11" tableBorderDxfId="9" totalsRowBorderDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F8406AB2-104B-4585-87AD-689DBD0111DE}" name="Tabella2" displayName="Tabella2" ref="A4:H21" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11" headerRowBorderDxfId="9" tableBorderDxfId="10" totalsRowBorderDxfId="8">
   <autoFilter ref="A4:H21" xr:uid="{F8406AB2-104B-4585-87AD-689DBD0111DE}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:H21">
     <sortCondition ref="H4:H21"/>
@@ -1085,7 +1077,7 @@
     <tableColumn id="9" xr3:uid="{65F15266-CF73-4302-BA82-7B61D4442B2D}" name="Year" dataDxfId="3"/>
     <tableColumn id="5" xr3:uid="{0C60A9B7-BB80-49F0-A892-4A29BA4B6C00}" name="Semester" dataDxfId="2"/>
     <tableColumn id="6" xr3:uid="{AF4E938B-3794-456A-BD30-86A1BEC96769}" name="ETCS" dataDxfId="1"/>
-    <tableColumn id="7" xr3:uid="{F555908D-5B70-4AEA-B0EB-22543AA6A3AF}" name="DONE" dataDxfId="0"/>
+    <tableColumn id="7" xr3:uid="{F555908D-5B70-4AEA-B0EB-22543AA6A3AF}" name="PASSED" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1390,8 +1382,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89E4B725-BD0D-4291-9550-3225AF05D5FC}">
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1402,8 +1394,8 @@
     <col min="4" max="4" width="31.109375" customWidth="1"/>
     <col min="5" max="5" width="11.109375" customWidth="1"/>
     <col min="6" max="6" width="17.5546875" customWidth="1"/>
-    <col min="7" max="7" width="10.5546875" customWidth="1"/>
-    <col min="8" max="8" width="13.88671875" customWidth="1"/>
+    <col min="7" max="7" width="13.77734375" customWidth="1"/>
+    <col min="8" max="8" width="16.109375" customWidth="1"/>
     <col min="9" max="9" width="13.44140625" customWidth="1"/>
     <col min="10" max="10" width="19.77734375" customWidth="1"/>
     <col min="11" max="11" width="13" customWidth="1"/>
@@ -1464,35 +1456,35 @@
         <v>31</v>
       </c>
       <c r="H4" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="J4" s="22" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="J4" s="29" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="14">
-        <v>1</v>
-      </c>
-      <c r="F5" s="14">
-        <v>1</v>
-      </c>
-      <c r="G5" s="14">
+      <c r="E5" s="9">
+        <v>1</v>
+      </c>
+      <c r="F5" s="9">
+        <v>1</v>
+      </c>
+      <c r="G5" s="9">
         <v>6</v>
       </c>
-      <c r="H5" s="15" t="s">
+      <c r="H5" s="10" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1518,10 +1510,12 @@
       <c r="G6" s="9">
         <v>6</v>
       </c>
-      <c r="H6" s="10"/>
+      <c r="H6" s="10" t="s">
+        <v>33</v>
+      </c>
       <c r="I6" s="2"/>
-      <c r="J6" s="36" t="s">
-        <v>59</v>
+      <c r="J6" s="28" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -1547,7 +1541,7 @@
         <v>6</v>
       </c>
       <c r="H7" s="10"/>
-      <c r="J7" s="35"/>
+      <c r="J7" s="27"/>
       <c r="K7" s="2"/>
     </row>
     <row r="8" spans="1:11" ht="48" customHeight="1" x14ac:dyDescent="0.3">
@@ -1573,330 +1567,337 @@
         <v>6</v>
       </c>
       <c r="H8" s="10"/>
-      <c r="J8" s="28" t="s">
-        <v>58</v>
-      </c>
+      <c r="I8" s="32"/>
+      <c r="J8" s="29"/>
     </row>
     <row r="9" spans="1:11" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="31" t="s">
+      <c r="A9" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="32" t="s">
+      <c r="B9" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="32" t="s">
+      <c r="C9" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="33" t="s">
-        <v>57</v>
-      </c>
-      <c r="E9" s="32">
-        <v>1</v>
-      </c>
-      <c r="F9" s="32">
-        <v>1</v>
-      </c>
-      <c r="G9" s="32">
+      <c r="D9" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9" s="24">
+        <v>1</v>
+      </c>
+      <c r="F9" s="24">
+        <v>1</v>
+      </c>
+      <c r="G9" s="24">
         <v>6</v>
       </c>
-      <c r="H9" s="34"/>
+      <c r="H9" s="26"/>
       <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
     </row>
     <row r="10" spans="1:11" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="14">
-        <v>1</v>
-      </c>
-      <c r="F10" s="14">
+      <c r="E10" s="9">
+        <v>1</v>
+      </c>
+      <c r="F10" s="9">
         <v>2</v>
       </c>
-      <c r="G10" s="14">
+      <c r="G10" s="9">
         <v>6</v>
       </c>
-      <c r="H10" s="15"/>
+      <c r="H10" s="10"/>
       <c r="J10" s="2"/>
     </row>
     <row r="11" spans="1:11" ht="59.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="D11" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="E11" s="14">
-        <v>1</v>
-      </c>
-      <c r="F11" s="14">
+      <c r="E11" s="9">
+        <v>1</v>
+      </c>
+      <c r="F11" s="9">
         <v>2</v>
       </c>
-      <c r="G11" s="14">
+      <c r="G11" s="9">
         <v>6</v>
       </c>
-      <c r="H11" s="15"/>
+      <c r="H11" s="10"/>
     </row>
     <row r="12" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="D12" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="E12" s="14">
-        <v>1</v>
-      </c>
-      <c r="F12" s="14">
+      <c r="E12" s="19">
+        <v>1</v>
+      </c>
+      <c r="F12" s="19">
         <v>2</v>
       </c>
-      <c r="G12" s="14">
+      <c r="G12" s="19">
         <v>6</v>
       </c>
-      <c r="H12" s="15"/>
+      <c r="H12" s="21"/>
       <c r="I12" s="2"/>
+      <c r="J12" s="33" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="13" spans="1:11" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="14" t="s">
+      <c r="D13" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="E13" s="14">
-        <v>1</v>
-      </c>
-      <c r="F13" s="14">
+      <c r="E13" s="9">
+        <v>1</v>
+      </c>
+      <c r="F13" s="9">
         <v>2</v>
       </c>
-      <c r="G13" s="14">
+      <c r="G13" s="9">
         <v>6</v>
       </c>
-      <c r="H13" s="15"/>
+      <c r="H13" s="10"/>
+      <c r="J13" s="32"/>
     </row>
     <row r="14" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="13" t="s">
+      <c r="A14" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="C14" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="14" t="s">
+      <c r="D14" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="E14" s="14">
-        <v>1</v>
-      </c>
-      <c r="F14" s="14">
+      <c r="E14" s="9">
+        <v>1</v>
+      </c>
+      <c r="F14" s="9">
         <v>2</v>
       </c>
-      <c r="G14" s="14">
+      <c r="G14" s="9">
         <v>6</v>
       </c>
-      <c r="H14" s="15"/>
+      <c r="H14" s="10"/>
       <c r="J14" s="3"/>
     </row>
     <row r="15" spans="1:11" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="C15" s="14" t="s">
+      <c r="C15" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="D15" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E15" s="14">
-        <v>1</v>
-      </c>
-      <c r="F15" s="14">
+      <c r="E15" s="9">
+        <v>1</v>
+      </c>
+      <c r="F15" s="9">
         <v>2</v>
       </c>
-      <c r="G15" s="14">
+      <c r="G15" s="9">
         <v>6</v>
       </c>
-      <c r="H15" s="15"/>
+      <c r="H15" s="10"/>
     </row>
     <row r="16" spans="1:11" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="13" t="s">
+      <c r="A16" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="C16" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D16" s="14" t="s">
+      <c r="D16" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E16" s="14">
-        <v>1</v>
-      </c>
-      <c r="F16" s="14" t="s">
+      <c r="E16" s="9">
+        <v>1</v>
+      </c>
+      <c r="F16" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="G16" s="14">
+      <c r="G16" s="9">
         <v>3</v>
       </c>
-      <c r="H16" s="15"/>
+      <c r="H16" s="10"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
     </row>
-    <row r="17" spans="1:9" ht="54.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="23" t="s">
+    <row r="17" spans="1:10" ht="54.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="24" t="s">
+      <c r="B17" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="D17" s="25" t="s">
+      <c r="C17" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="D17" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="E17" s="26">
+      <c r="E17" s="19">
         <v>2</v>
       </c>
-      <c r="F17" s="24">
-        <v>1</v>
-      </c>
-      <c r="G17" s="24">
+      <c r="F17" s="19">
+        <v>1</v>
+      </c>
+      <c r="G17" s="19">
         <v>6</v>
       </c>
-      <c r="H17" s="27"/>
-      <c r="I17" s="22"/>
-    </row>
-    <row r="18" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="16" t="s">
+      <c r="H17" s="21"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="33" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="14" t="s">
+      <c r="C18" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="14" t="s">
+      <c r="D18" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="E18" s="18">
+      <c r="E18" s="13">
         <v>2</v>
       </c>
-      <c r="F18" s="14">
-        <v>1</v>
-      </c>
-      <c r="G18" s="14">
+      <c r="F18" s="9">
+        <v>1</v>
+      </c>
+      <c r="G18" s="9">
         <v>6</v>
       </c>
-      <c r="H18" s="15"/>
-    </row>
-    <row r="19" spans="1:9" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="16" t="s">
+      <c r="H18" s="10"/>
+    </row>
+    <row r="19" spans="1:10" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="14" t="s">
+      <c r="C19" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D19" s="14" t="s">
+      <c r="D19" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="E19" s="14">
+      <c r="E19" s="9">
         <v>2</v>
       </c>
-      <c r="F19" s="14">
-        <v>1</v>
-      </c>
-      <c r="G19" s="14">
+      <c r="F19" s="9">
+        <v>1</v>
+      </c>
+      <c r="G19" s="9">
         <v>3</v>
       </c>
-      <c r="H19" s="15"/>
-    </row>
-    <row r="20" spans="1:9" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="16" t="s">
+      <c r="H19" s="10"/>
+    </row>
+    <row r="20" spans="1:10" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="14" t="s">
+      <c r="C20" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D20" s="14" t="s">
+      <c r="D20" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="E20" s="14">
+      <c r="E20" s="9">
         <v>2</v>
       </c>
-      <c r="F20" s="14">
+      <c r="F20" s="9">
         <v>2</v>
       </c>
-      <c r="G20" s="14">
+      <c r="G20" s="9">
         <v>3</v>
       </c>
-      <c r="H20" s="15"/>
-    </row>
-    <row r="21" spans="1:9" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="19" t="s">
+      <c r="H20" s="10"/>
+    </row>
+    <row r="21" spans="1:10" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="B21" s="20" t="s">
+      <c r="B21" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="20" t="s">
+      <c r="C21" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D21" s="20" t="s">
+      <c r="D21" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="E21" s="20">
+      <c r="E21" s="15">
         <v>2</v>
       </c>
-      <c r="F21" s="20" t="s">
+      <c r="F21" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="G21" s="20">
+      <c r="G21" s="15">
         <v>33</v>
       </c>
-      <c r="H21" s="21"/>
-    </row>
-    <row r="22" spans="1:9" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H21" s="16"/>
+    </row>
+    <row r="22" spans="1:10" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>

--- a/MasterDegree_StudyPlan.xlsx
+++ b/MasterDegree_StudyPlan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\GitHub\Repo\Master-courses\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B178A763-C049-4E37-B039-8FE10F5FC211}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BA5F4D0-22A0-4790-8BF5-A4CBAEBA9D41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9CCEDFCE-005C-40C2-92E8-4E076261F21E}"/>
   </bookViews>
@@ -484,7 +484,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -520,9 +520,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -569,14 +566,13 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -872,13 +868,6 @@
       </border>
     </dxf>
     <dxf>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color auto="1"/>
@@ -908,6 +897,13 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -1064,10 +1060,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F8406AB2-104B-4585-87AD-689DBD0111DE}" name="Tabella2" displayName="Tabella2" ref="A4:H21" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11" headerRowBorderDxfId="9" tableBorderDxfId="10" totalsRowBorderDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F8406AB2-104B-4585-87AD-689DBD0111DE}" name="Tabella2" displayName="Tabella2" ref="A4:H21" totalsRowShown="0" headerRowDxfId="12" dataDxfId="10" headerRowBorderDxfId="11" tableBorderDxfId="9" totalsRowBorderDxfId="8">
   <autoFilter ref="A4:H21" xr:uid="{F8406AB2-104B-4585-87AD-689DBD0111DE}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:H21">
-    <sortCondition ref="H4:H21"/>
+    <sortCondition ref="E4:E21"/>
   </sortState>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{030FDB74-6B11-48DD-A02F-DBE88F27EB4F}" name="Course" dataDxfId="7"/>
@@ -1084,9 +1080,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1124,7 +1120,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1230,7 +1226,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1372,7 +1368,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1382,8 +1378,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89E4B725-BD0D-4291-9550-3225AF05D5FC}">
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1458,7 +1454,7 @@
       <c r="H4" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="J4" s="22" t="s">
+      <c r="J4" s="21" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1514,7 +1510,7 @@
         <v>33</v>
       </c>
       <c r="I6" s="2"/>
-      <c r="J6" s="28" t="s">
+      <c r="J6" s="27" t="s">
         <v>57</v>
       </c>
     </row>
@@ -1541,7 +1537,7 @@
         <v>6</v>
       </c>
       <c r="H7" s="10"/>
-      <c r="J7" s="27"/>
+      <c r="J7" s="26"/>
       <c r="K7" s="2"/>
     </row>
     <row r="8" spans="1:11" ht="48" customHeight="1" x14ac:dyDescent="0.3">
@@ -1567,32 +1563,31 @@
         <v>6</v>
       </c>
       <c r="H8" s="10"/>
-      <c r="I8" s="32"/>
-      <c r="J8" s="29"/>
+      <c r="J8" s="28"/>
     </row>
     <row r="9" spans="1:11" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="23" t="s">
+      <c r="A9" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="24" t="s">
+      <c r="C9" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="25" t="s">
+      <c r="D9" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="E9" s="24">
+      <c r="E9" s="23">
         <v>1</v>
       </c>
-      <c r="F9" s="24">
+      <c r="F9" s="23">
         <v>1</v>
       </c>
-      <c r="G9" s="24">
+      <c r="G9" s="23">
         <v>6</v>
       </c>
-      <c r="H9" s="26"/>
+      <c r="H9" s="25"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
     </row>
@@ -1646,45 +1641,42 @@
       <c r="H11" s="10"/>
     </row>
     <row r="12" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="E12" s="19">
+      <c r="A12" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" s="9">
         <v>1</v>
       </c>
-      <c r="F12" s="19">
+      <c r="F12" s="9">
         <v>2</v>
       </c>
-      <c r="G12" s="19">
+      <c r="G12" s="9">
         <v>6</v>
       </c>
-      <c r="H12" s="21"/>
+      <c r="H12" s="10"/>
       <c r="I12" s="2"/>
-      <c r="J12" s="33" t="s">
-        <v>59</v>
-      </c>
     </row>
     <row r="13" spans="1:11" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="E13" s="9">
         <v>1</v>
@@ -1696,20 +1688,19 @@
         <v>6</v>
       </c>
       <c r="H13" s="10"/>
-      <c r="J13" s="32"/>
-    </row>
-    <row r="14" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="8" t="s">
-        <v>47</v>
+    </row>
+    <row r="14" spans="1:11" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="11" t="s">
+        <v>48</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>20</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="E14" s="9">
         <v>1</v>
@@ -1724,84 +1715,86 @@
       <c r="J14" s="3"/>
     </row>
     <row r="15" spans="1:11" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="11" t="s">
-        <v>48</v>
+      <c r="A15" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>51</v>
+        <v>9</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E15" s="9">
         <v>1</v>
       </c>
-      <c r="F15" s="9">
+      <c r="F15" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G15" s="9">
+        <v>3</v>
+      </c>
+      <c r="H15" s="10"/>
+    </row>
+    <row r="16" spans="1:11" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16" s="18">
         <v>2</v>
       </c>
-      <c r="G15" s="9">
+      <c r="F16" s="18">
+        <v>2</v>
+      </c>
+      <c r="G16" s="18">
         <v>6</v>
       </c>
-      <c r="H15" s="10"/>
-    </row>
-    <row r="16" spans="1:11" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="9" t="s">
+      <c r="H16" s="20"/>
+      <c r="J16" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="K16" s="2"/>
+    </row>
+    <row r="17" spans="1:10" ht="54.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" s="18">
         <v>2</v>
       </c>
-      <c r="D16" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E16" s="9">
+      <c r="F17" s="18">
         <v>1</v>
       </c>
-      <c r="F16" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="G16" s="9">
-        <v>3</v>
-      </c>
-      <c r="H16" s="10"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-    </row>
-    <row r="17" spans="1:10" ht="54.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="D17" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17" s="19">
-        <v>2</v>
-      </c>
-      <c r="F17" s="19">
-        <v>1</v>
-      </c>
-      <c r="G17" s="19">
+      <c r="G17" s="18">
         <v>6</v>
       </c>
-      <c r="H17" s="21"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="33" t="s">
+      <c r="H17" s="20"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="31" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
         <v>42</v>
       </c>
@@ -1814,7 +1807,7 @@
       <c r="D18" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="E18" s="13">
+      <c r="E18" s="9">
         <v>2</v>
       </c>
       <c r="F18" s="9">
@@ -1874,28 +1867,28 @@
       <c r="H20" s="10"/>
     </row>
     <row r="21" spans="1:10" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="14" t="s">
+      <c r="A21" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="B21" s="15" t="s">
+      <c r="B21" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="15" t="s">
+      <c r="C21" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D21" s="15" t="s">
+      <c r="D21" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="E21" s="15">
+      <c r="E21" s="14">
         <v>2</v>
       </c>
-      <c r="F21" s="15" t="s">
+      <c r="F21" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="G21" s="15">
+      <c r="G21" s="14">
         <v>33</v>
       </c>
-      <c r="H21" s="16"/>
+      <c r="H21" s="15"/>
     </row>
     <row r="22" spans="1:10" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>

--- a/MasterDegree_StudyPlan.xlsx
+++ b/MasterDegree_StudyPlan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\GitHub\Repo\Master-courses\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BA5F4D0-22A0-4790-8BF5-A4CBAEBA9D41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FE3BACE-A766-46B4-8059-D31FB2B88315}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9CCEDFCE-005C-40C2-92E8-4E076261F21E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="61">
   <si>
     <t>Computability</t>
   </si>
@@ -241,10 +241,10 @@
     <t>PASSED</t>
   </si>
   <si>
-    <t>CHOOSE ANOTHER MINOR</t>
-  </si>
-  <si>
-    <t>CHOOSE ANOTHER FREE CHOICE COURSE</t>
+    <t>CHOOSE ANOTHER MINOR/MAJOR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHOOSE ANOTHER FREE CHOICE </t>
   </si>
 </sst>
 </file>
@@ -490,9 +490,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -511,9 +508,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -524,9 +518,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -539,9 +530,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -554,9 +542,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -569,11 +554,26 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1378,8 +1378,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89E4B725-BD0D-4291-9550-3225AF05D5FC}">
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1398,497 +1398,499 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="30"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="30"/>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
+      <c r="A3" s="27"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
     </row>
     <row r="4" spans="1:11" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="J4" s="21" t="s">
+      <c r="J4" s="17" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="8">
         <v>1</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="8">
         <v>1</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="8">
         <v>6</v>
       </c>
-      <c r="H5" s="10" t="s">
+      <c r="H5" s="28" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="8">
         <v>1</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="8">
         <v>1</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="8">
         <v>6</v>
       </c>
-      <c r="H6" s="10" t="s">
+      <c r="H6" s="28" t="s">
         <v>33</v>
       </c>
       <c r="I6" s="2"/>
-      <c r="J6" s="27" t="s">
+      <c r="J6" s="22" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="8">
         <v>1</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="8">
         <v>1</v>
       </c>
-      <c r="G7" s="9">
+      <c r="G7" s="8">
         <v>6</v>
       </c>
-      <c r="H7" s="10"/>
-      <c r="J7" s="26"/>
+      <c r="H7" s="28"/>
+      <c r="J7" s="21"/>
       <c r="K7" s="2"/>
     </row>
     <row r="8" spans="1:11" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="8">
         <v>1</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="8">
         <v>1</v>
       </c>
-      <c r="G8" s="9">
+      <c r="G8" s="8">
         <v>6</v>
       </c>
-      <c r="H8" s="10"/>
-      <c r="J8" s="28"/>
+      <c r="H8" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="J8" s="23"/>
     </row>
     <row r="9" spans="1:11" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="23" t="s">
+      <c r="C9" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="24" t="s">
+      <c r="D9" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="E9" s="23">
+      <c r="E9" s="19">
         <v>1</v>
       </c>
-      <c r="F9" s="23">
+      <c r="F9" s="19">
         <v>1</v>
       </c>
-      <c r="G9" s="23">
+      <c r="G9" s="19">
         <v>6</v>
       </c>
-      <c r="H9" s="25"/>
+      <c r="H9" s="29"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
     </row>
     <row r="10" spans="1:11" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="8">
         <v>1</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F10" s="8">
         <v>2</v>
       </c>
-      <c r="G10" s="9">
+      <c r="G10" s="8">
         <v>6</v>
       </c>
-      <c r="H10" s="10"/>
+      <c r="H10" s="28"/>
       <c r="J10" s="2"/>
     </row>
     <row r="11" spans="1:11" ht="59.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11" s="8">
         <v>1</v>
       </c>
-      <c r="F11" s="9">
+      <c r="F11" s="8">
         <v>2</v>
       </c>
-      <c r="G11" s="9">
+      <c r="G11" s="8">
         <v>6</v>
       </c>
-      <c r="H11" s="10"/>
+      <c r="H11" s="28"/>
     </row>
     <row r="12" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E12" s="8">
         <v>1</v>
       </c>
-      <c r="F12" s="9">
+      <c r="F12" s="8">
         <v>2</v>
       </c>
-      <c r="G12" s="9">
+      <c r="G12" s="8">
         <v>6</v>
       </c>
-      <c r="H12" s="10"/>
+      <c r="H12" s="28"/>
       <c r="I12" s="2"/>
     </row>
     <row r="13" spans="1:11" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E13" s="8">
         <v>1</v>
       </c>
-      <c r="F13" s="9">
+      <c r="F13" s="8">
         <v>2</v>
       </c>
-      <c r="G13" s="9">
+      <c r="G13" s="8">
         <v>6</v>
       </c>
-      <c r="H13" s="10"/>
+      <c r="H13" s="28"/>
     </row>
     <row r="14" spans="1:11" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E14" s="8">
         <v>1</v>
       </c>
-      <c r="F14" s="9">
+      <c r="F14" s="8">
         <v>2</v>
       </c>
-      <c r="G14" s="9">
+      <c r="G14" s="8">
         <v>6</v>
       </c>
-      <c r="H14" s="10"/>
-      <c r="J14" s="3"/>
+      <c r="H14" s="28"/>
+      <c r="J14" s="26"/>
     </row>
     <row r="15" spans="1:11" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E15" s="9">
+      <c r="E15" s="8">
         <v>1</v>
       </c>
-      <c r="F15" s="9" t="s">
+      <c r="F15" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="G15" s="9">
+      <c r="G15" s="8">
         <v>3</v>
       </c>
-      <c r="H15" s="10"/>
+      <c r="H15" s="28"/>
     </row>
     <row r="16" spans="1:11" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="29" t="s">
+      <c r="A16" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="C16" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="19" t="s">
+      <c r="D16" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="E16" s="18">
+      <c r="E16" s="15">
         <v>2</v>
       </c>
-      <c r="F16" s="18">
+      <c r="F16" s="15">
         <v>2</v>
       </c>
-      <c r="G16" s="18">
+      <c r="G16" s="15">
         <v>6</v>
       </c>
-      <c r="H16" s="20"/>
-      <c r="J16" s="31" t="s">
+      <c r="H16" s="30"/>
+      <c r="J16" s="25" t="s">
         <v>59</v>
       </c>
       <c r="K16" s="2"/>
     </row>
     <row r="17" spans="1:10" ht="54.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="17" t="s">
+      <c r="A17" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="C17" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="D17" s="19" t="s">
+      <c r="D17" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="E17" s="18">
+      <c r="E17" s="15">
         <v>2</v>
       </c>
-      <c r="F17" s="18">
+      <c r="F17" s="15">
         <v>1</v>
       </c>
-      <c r="G17" s="18">
+      <c r="G17" s="15">
         <v>6</v>
       </c>
-      <c r="H17" s="20"/>
-      <c r="I17" s="16"/>
-      <c r="J17" s="31" t="s">
+      <c r="H17" s="30"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="25" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="D18" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="E18" s="9">
+      <c r="E18" s="8">
         <v>2</v>
       </c>
-      <c r="F18" s="9">
+      <c r="F18" s="8">
         <v>1</v>
       </c>
-      <c r="G18" s="9">
+      <c r="G18" s="8">
         <v>6</v>
       </c>
-      <c r="H18" s="10"/>
+      <c r="H18" s="28"/>
     </row>
     <row r="19" spans="1:10" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="D19" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="E19" s="9">
+      <c r="E19" s="8">
         <v>2</v>
       </c>
-      <c r="F19" s="9">
+      <c r="F19" s="8">
         <v>1</v>
       </c>
-      <c r="G19" s="9">
+      <c r="G19" s="8">
         <v>3</v>
       </c>
-      <c r="H19" s="10"/>
+      <c r="H19" s="28"/>
     </row>
     <row r="20" spans="1:10" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="11" t="s">
+      <c r="A20" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D20" s="9" t="s">
+      <c r="D20" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="E20" s="9">
+      <c r="E20" s="8">
         <v>2</v>
       </c>
-      <c r="F20" s="9">
+      <c r="F20" s="8">
         <v>2</v>
       </c>
-      <c r="G20" s="9">
+      <c r="G20" s="8">
         <v>3</v>
       </c>
-      <c r="H20" s="10"/>
+      <c r="H20" s="28"/>
     </row>
     <row r="21" spans="1:10" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="13" t="s">
+      <c r="A21" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B21" s="14" t="s">
+      <c r="B21" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="14" t="s">
+      <c r="C21" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D21" s="14" t="s">
+      <c r="D21" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="E21" s="14">
+      <c r="E21" s="12">
         <v>2</v>
       </c>
-      <c r="F21" s="14" t="s">
+      <c r="F21" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="G21" s="14">
+      <c r="G21" s="12">
         <v>33</v>
       </c>
-      <c r="H21" s="15"/>
+      <c r="H21" s="31"/>
     </row>
     <row r="22" spans="1:10" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
@@ -1896,10 +1898,10 @@
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
-      <c r="F22" s="4" t="s">
+      <c r="F22" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G22" s="4">
+      <c r="G22" s="3">
         <f>SUBTOTAL(109,Tabella2[ETCS])</f>
         <v>120</v>
       </c>

--- a/MasterDegree_StudyPlan.xlsx
+++ b/MasterDegree_StudyPlan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\GitHub\Repo\Master-courses\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FE3BACE-A766-46B4-8059-D31FB2B88315}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEA6E91A-F5BE-4B15-B965-7DCB081CEB53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9CCEDFCE-005C-40C2-92E8-4E076261F21E}"/>
   </bookViews>
@@ -183,68 +183,66 @@
     <t>Individual/team project + oral</t>
   </si>
   <si>
+    <t>Small project/report + multiple choice test</t>
+  </si>
+  <si>
+    <t>Project + written</t>
+  </si>
+  <si>
+    <t>Start-up in ICT</t>
+  </si>
+  <si>
+    <t>Security and risk: management and certifications</t>
+  </si>
+  <si>
+    <t>Fabio D'Alessi</t>
+  </si>
+  <si>
+    <t>Team project</t>
+  </si>
+  <si>
+    <t>Simone Soderi</t>
+  </si>
+  <si>
+    <t>Thomas Marchioro</t>
+  </si>
+  <si>
+    <t>ATTENDING</t>
+  </si>
+  <si>
+    <t>Free choice (6/12 ETCS)</t>
+  </si>
+  <si>
+    <t>Game Theory</t>
+  </si>
+  <si>
+    <t>Project + oral</t>
+  </si>
+  <si>
+    <t>PROJECT PHASE</t>
+  </si>
+  <si>
+    <t>PASSED</t>
+  </si>
+  <si>
+    <t>CHOOSE ANOTHER MINOR/MAJOR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHOOSE ANOTHER FREE CHOICE </t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">Project </t>
     </r>
     <r>
       <rPr>
-        <b/>
         <sz val="12"/>
-        <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>+ oral??</t>
+      <t>+ oral</t>
     </r>
-  </si>
-  <si>
-    <t>Small project/report + multiple choice test</t>
-  </si>
-  <si>
-    <t>Project + written</t>
-  </si>
-  <si>
-    <t>Start-up in ICT</t>
-  </si>
-  <si>
-    <t>Security and risk: management and certifications</t>
-  </si>
-  <si>
-    <t>Fabio D'Alessi</t>
-  </si>
-  <si>
-    <t>Team project</t>
-  </si>
-  <si>
-    <t>Simone Soderi</t>
-  </si>
-  <si>
-    <t>Thomas Marchioro</t>
-  </si>
-  <si>
-    <t>ATTENDING</t>
-  </si>
-  <si>
-    <t>Free choice (6/12 ETCS)</t>
-  </si>
-  <si>
-    <t>Game Theory</t>
-  </si>
-  <si>
-    <t>Project + oral</t>
-  </si>
-  <si>
-    <t>PROJECT PHASE</t>
-  </si>
-  <si>
-    <t>PASSED</t>
-  </si>
-  <si>
-    <t>CHOOSE ANOTHER MINOR/MAJOR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHOOSE ANOTHER FREE CHOICE </t>
   </si>
 </sst>
 </file>
@@ -305,14 +303,6 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -329,6 +319,12 @@
     </font>
     <font>
       <b/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -520,7 +516,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -530,7 +526,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -545,34 +541,34 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1378,8 +1374,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89E4B725-BD0D-4291-9550-3225AF05D5FC}">
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1398,36 +1394,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
+      <c r="A2" s="31"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="27"/>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
+      <c r="A3" s="31"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
     </row>
     <row r="4" spans="1:11" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
@@ -1452,21 +1448,21 @@
         <v>31</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J4" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>10</v>
@@ -1480,7 +1476,7 @@
       <c r="G5" s="8">
         <v>6</v>
       </c>
-      <c r="H5" s="28" t="s">
+      <c r="H5" s="27" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1506,12 +1502,12 @@
       <c r="G6" s="8">
         <v>6</v>
       </c>
-      <c r="H6" s="28" t="s">
+      <c r="H6" s="27" t="s">
         <v>33</v>
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -1536,7 +1532,7 @@
       <c r="G7" s="8">
         <v>6</v>
       </c>
-      <c r="H7" s="28"/>
+      <c r="H7" s="27"/>
       <c r="J7" s="21"/>
       <c r="K7" s="2"/>
     </row>
@@ -1551,7 +1547,7 @@
         <v>12</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E8" s="8">
         <v>1</v>
@@ -1562,7 +1558,7 @@
       <c r="G8" s="8">
         <v>6</v>
       </c>
-      <c r="H8" s="28" t="s">
+      <c r="H8" s="27" t="s">
         <v>33</v>
       </c>
       <c r="J8" s="23"/>
@@ -1578,7 +1574,7 @@
         <v>12</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E9" s="19">
         <v>1</v>
@@ -1589,7 +1585,7 @@
       <c r="G9" s="19">
         <v>6</v>
       </c>
-      <c r="H9" s="29"/>
+      <c r="H9" s="28"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
     </row>
@@ -1615,7 +1611,7 @@
       <c r="G10" s="8">
         <v>6</v>
       </c>
-      <c r="H10" s="28"/>
+      <c r="H10" s="27"/>
       <c r="J10" s="2"/>
     </row>
     <row r="11" spans="1:11" ht="59.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -1629,7 +1625,7 @@
         <v>12</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="E11" s="8">
         <v>1</v>
@@ -1640,7 +1636,7 @@
       <c r="G11" s="8">
         <v>6</v>
       </c>
-      <c r="H11" s="28"/>
+      <c r="H11" s="27"/>
     </row>
     <row r="12" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
@@ -1653,7 +1649,7 @@
         <v>27</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E12" s="8">
         <v>1</v>
@@ -1664,21 +1660,21 @@
       <c r="G12" s="8">
         <v>6</v>
       </c>
-      <c r="H12" s="28"/>
+      <c r="H12" s="27"/>
       <c r="I12" s="2"/>
     </row>
     <row r="13" spans="1:11" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>20</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E13" s="8">
         <v>1</v>
@@ -1689,14 +1685,14 @@
       <c r="G13" s="8">
         <v>6</v>
       </c>
-      <c r="H13" s="28"/>
+      <c r="H13" s="27"/>
     </row>
     <row r="14" spans="1:11" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>20</v>
@@ -1713,7 +1709,7 @@
       <c r="G14" s="8">
         <v>6</v>
       </c>
-      <c r="H14" s="28"/>
+      <c r="H14" s="27"/>
       <c r="J14" s="26"/>
     </row>
     <row r="15" spans="1:11" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -1738,7 +1734,7 @@
       <c r="G15" s="8">
         <v>3</v>
       </c>
-      <c r="H15" s="28"/>
+      <c r="H15" s="27"/>
     </row>
     <row r="16" spans="1:11" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="24" t="s">
@@ -1751,7 +1747,7 @@
         <v>20</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E16" s="15">
         <v>2</v>
@@ -1762,9 +1758,9 @@
       <c r="G16" s="15">
         <v>6</v>
       </c>
-      <c r="H16" s="30"/>
+      <c r="H16" s="29"/>
       <c r="J16" s="25" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K16" s="2"/>
     </row>
@@ -1776,7 +1772,7 @@
         <v>22</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D17" s="16" t="s">
         <v>23</v>
@@ -1790,10 +1786,10 @@
       <c r="G17" s="15">
         <v>6</v>
       </c>
-      <c r="H17" s="30"/>
+      <c r="H17" s="29"/>
       <c r="I17" s="13"/>
       <c r="J17" s="25" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.3">
@@ -1818,7 +1814,7 @@
       <c r="G18" s="8">
         <v>6</v>
       </c>
-      <c r="H18" s="28"/>
+      <c r="H18" s="27"/>
     </row>
     <row r="19" spans="1:10" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
@@ -1842,7 +1838,7 @@
       <c r="G19" s="8">
         <v>3</v>
       </c>
-      <c r="H19" s="28"/>
+      <c r="H19" s="27"/>
     </row>
     <row r="20" spans="1:10" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="9" t="s">
@@ -1866,7 +1862,7 @@
       <c r="G20" s="8">
         <v>3</v>
       </c>
-      <c r="H20" s="28"/>
+      <c r="H20" s="27"/>
     </row>
     <row r="21" spans="1:10" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="11" t="s">
@@ -1890,7 +1886,7 @@
       <c r="G21" s="12">
         <v>33</v>
       </c>
-      <c r="H21" s="31"/>
+      <c r="H21" s="30"/>
     </row>
     <row r="22" spans="1:10" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>

--- a/MasterDegree_StudyPlan.xlsx
+++ b/MasterDegree_StudyPlan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\GitHub\Repo\Master-courses\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEA6E91A-F5BE-4B15-B965-7DCB081CEB53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73250FE8-FB70-4537-B6B8-3C5C42E8AE38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9CCEDFCE-005C-40C2-92E8-4E076261F21E}"/>
   </bookViews>
@@ -1374,8 +1374,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89E4B725-BD0D-4291-9550-3225AF05D5FC}">
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/MasterDegree_StudyPlan.xlsx
+++ b/MasterDegree_StudyPlan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\GitHub\Repo\Master-courses\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73250FE8-FB70-4537-B6B8-3C5C42E8AE38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0725186E-AF3B-4780-B6BD-5AEFCAF8ABB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9CCEDFCE-005C-40C2-92E8-4E076261F21E}"/>
   </bookViews>
@@ -480,7 +480,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -498,28 +498,16 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -529,9 +517,6 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -547,9 +532,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -569,6 +551,36 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -576,6 +588,61 @@
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="13">
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -771,74 +838,6 @@
         <left style="thin">
           <color auto="1"/>
         </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical style="thin">
-          <color auto="1"/>
-        </vertical>
-        <horizontal style="thin">
-          <color auto="1"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical style="thin">
-          <color auto="1"/>
-        </vertical>
-        <horizontal style="thin">
-          <color auto="1"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
         <right style="thin">
           <color auto="1"/>
         </right>
@@ -1059,17 +1058,17 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F8406AB2-104B-4585-87AD-689DBD0111DE}" name="Tabella2" displayName="Tabella2" ref="A4:H21" totalsRowShown="0" headerRowDxfId="12" dataDxfId="10" headerRowBorderDxfId="11" tableBorderDxfId="9" totalsRowBorderDxfId="8">
   <autoFilter ref="A4:H21" xr:uid="{F8406AB2-104B-4585-87AD-689DBD0111DE}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:H21">
-    <sortCondition ref="E4:E21"/>
+    <sortCondition ref="H4:H21"/>
   </sortState>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{030FDB74-6B11-48DD-A02F-DBE88F27EB4F}" name="Course" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{B359D6B6-2405-42B9-80DD-CF995BBC33B1}" name="Professor" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{C2D716C1-F051-48A0-9247-54C3A56FBE0F}" name="Type" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{8BF37862-6EAD-47FB-BE66-14C3DACF2F7C}" name="Examination Method" dataDxfId="4"/>
-    <tableColumn id="9" xr3:uid="{65F15266-CF73-4302-BA82-7B61D4442B2D}" name="Year" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{0C60A9B7-BB80-49F0-A892-4A29BA4B6C00}" name="Semester" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{AF4E938B-3794-456A-BD30-86A1BEC96769}" name="ETCS" dataDxfId="1"/>
-    <tableColumn id="7" xr3:uid="{F555908D-5B70-4AEA-B0EB-22543AA6A3AF}" name="PASSED" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{030FDB74-6B11-48DD-A02F-DBE88F27EB4F}" name="Course" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{B359D6B6-2405-42B9-80DD-CF995BBC33B1}" name="Professor" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{C2D716C1-F051-48A0-9247-54C3A56FBE0F}" name="Type" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{8BF37862-6EAD-47FB-BE66-14C3DACF2F7C}" name="Examination Method" dataDxfId="6"/>
+    <tableColumn id="9" xr3:uid="{65F15266-CF73-4302-BA82-7B61D4442B2D}" name="Year" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{0C60A9B7-BB80-49F0-A892-4A29BA4B6C00}" name="Semester" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{AF4E938B-3794-456A-BD30-86A1BEC96769}" name="ETCS" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{F555908D-5B70-4AEA-B0EB-22543AA6A3AF}" name="PASSED" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1374,8 +1373,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89E4B725-BD0D-4291-9550-3225AF05D5FC}">
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1394,36 +1393,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="31"/>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
+      <c r="A2" s="25"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="31"/>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
+      <c r="A3" s="25"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
     </row>
     <row r="4" spans="1:11" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
@@ -1450,443 +1449,441 @@
       <c r="H4" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="J4" s="17" t="s">
+    </row>
+    <row r="5" spans="1:11" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="7">
+        <v>1</v>
+      </c>
+      <c r="F5" s="7">
+        <v>1</v>
+      </c>
+      <c r="G5" s="7">
+        <v>6</v>
+      </c>
+      <c r="H5" s="21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="7">
+        <v>1</v>
+      </c>
+      <c r="F6" s="7">
+        <v>1</v>
+      </c>
+      <c r="G6" s="7">
+        <v>6</v>
+      </c>
+      <c r="H6" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="1:11" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="7">
+        <v>1</v>
+      </c>
+      <c r="F7" s="7">
+        <v>1</v>
+      </c>
+      <c r="G7" s="7">
+        <v>6</v>
+      </c>
+      <c r="H7" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="J7" s="16"/>
+      <c r="K7" s="2"/>
+    </row>
+    <row r="8" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="7">
+        <v>1</v>
+      </c>
+      <c r="F8" s="7">
+        <v>1</v>
+      </c>
+      <c r="G8" s="7">
+        <v>6</v>
+      </c>
+      <c r="H8" s="21"/>
+      <c r="J8" s="18"/>
+    </row>
+    <row r="9" spans="1:11" ht="59.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="E9" s="14">
+        <v>1</v>
+      </c>
+      <c r="F9" s="14">
+        <v>1</v>
+      </c>
+      <c r="G9" s="14">
+        <v>6</v>
+      </c>
+      <c r="H9" s="22"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="17" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="26">
+        <v>1</v>
+      </c>
+      <c r="F10" s="26">
+        <v>2</v>
+      </c>
+      <c r="G10" s="26">
+        <v>6</v>
+      </c>
+      <c r="H10" s="27"/>
+      <c r="J10" s="13" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="8">
+    <row r="11" spans="1:11" ht="59.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="E11" s="26">
         <v>1</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F11" s="26">
+        <v>2</v>
+      </c>
+      <c r="G11" s="26">
+        <v>6</v>
+      </c>
+      <c r="H11" s="27"/>
+    </row>
+    <row r="12" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" s="26">
         <v>1</v>
       </c>
-      <c r="G5" s="8">
-        <v>6</v>
-      </c>
-      <c r="H5" s="27" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="8" t="s">
+      <c r="F12" s="26">
         <v>2</v>
       </c>
-      <c r="D6" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="8">
-        <v>1</v>
-      </c>
-      <c r="F6" s="8">
-        <v>1</v>
-      </c>
-      <c r="G6" s="8">
-        <v>6</v>
-      </c>
-      <c r="H6" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="I6" s="2"/>
-      <c r="J6" s="22" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="8">
-        <v>1</v>
-      </c>
-      <c r="F7" s="8">
-        <v>1</v>
-      </c>
-      <c r="G7" s="8">
-        <v>6</v>
-      </c>
-      <c r="H7" s="27"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="E8" s="8">
-        <v>1</v>
-      </c>
-      <c r="F8" s="8">
-        <v>1</v>
-      </c>
-      <c r="G8" s="8">
-        <v>6</v>
-      </c>
-      <c r="H8" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="J8" s="23"/>
-    </row>
-    <row r="9" spans="1:11" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="E9" s="19">
-        <v>1</v>
-      </c>
-      <c r="F9" s="19">
-        <v>1</v>
-      </c>
-      <c r="G9" s="19">
-        <v>6</v>
-      </c>
-      <c r="H9" s="28"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-    </row>
-    <row r="10" spans="1:11" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="8">
-        <v>1</v>
-      </c>
-      <c r="F10" s="8">
-        <v>2</v>
-      </c>
-      <c r="G10" s="8">
-        <v>6</v>
-      </c>
-      <c r="H10" s="27"/>
-      <c r="J10" s="2"/>
-    </row>
-    <row r="11" spans="1:11" ht="59.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="E11" s="8">
-        <v>1</v>
-      </c>
-      <c r="F11" s="8">
-        <v>2</v>
-      </c>
-      <c r="G11" s="8">
-        <v>6</v>
-      </c>
-      <c r="H11" s="27"/>
-    </row>
-    <row r="12" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="E12" s="8">
-        <v>1</v>
-      </c>
-      <c r="F12" s="8">
-        <v>2</v>
-      </c>
-      <c r="G12" s="8">
+      <c r="G12" s="26">
         <v>6</v>
       </c>
       <c r="H12" s="27"/>
       <c r="I12" s="2"/>
     </row>
     <row r="13" spans="1:11" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="E13" s="8">
+      <c r="E13" s="26">
         <v>1</v>
       </c>
-      <c r="F13" s="8">
+      <c r="F13" s="26">
         <v>2</v>
       </c>
-      <c r="G13" s="8">
+      <c r="G13" s="26">
         <v>6</v>
       </c>
       <c r="H13" s="27"/>
     </row>
     <row r="14" spans="1:11" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="8">
+      <c r="E14" s="26">
         <v>1</v>
       </c>
-      <c r="F14" s="8">
+      <c r="F14" s="26">
         <v>2</v>
       </c>
-      <c r="G14" s="8">
+      <c r="G14" s="26">
         <v>6</v>
       </c>
       <c r="H14" s="27"/>
-      <c r="J14" s="26"/>
+      <c r="J14" s="20"/>
     </row>
     <row r="15" spans="1:11" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E15" s="8">
+      <c r="E15" s="7">
         <v>1</v>
       </c>
-      <c r="F15" s="8" t="s">
+      <c r="F15" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="G15" s="8">
+      <c r="G15" s="7">
         <v>3</v>
       </c>
-      <c r="H15" s="27"/>
+      <c r="H15" s="21"/>
     </row>
     <row r="16" spans="1:11" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="24" t="s">
+      <c r="A16" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="15" t="s">
+      <c r="C16" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="16" t="s">
+      <c r="D16" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="E16" s="15">
+      <c r="E16" s="11">
         <v>2</v>
       </c>
-      <c r="F16" s="15">
+      <c r="F16" s="11">
         <v>2</v>
       </c>
-      <c r="G16" s="15">
+      <c r="G16" s="11">
         <v>6</v>
       </c>
-      <c r="H16" s="29"/>
-      <c r="J16" s="25" t="s">
+      <c r="H16" s="23"/>
+      <c r="J16" s="19" t="s">
         <v>58</v>
       </c>
       <c r="K16" s="2"/>
     </row>
     <row r="17" spans="1:10" ht="54.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="14" t="s">
+      <c r="A17" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="15" t="s">
+      <c r="C17" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="D17" s="16" t="s">
+      <c r="D17" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="E17" s="15">
+      <c r="E17" s="11">
         <v>2</v>
       </c>
-      <c r="F17" s="15">
+      <c r="F17" s="11">
         <v>1</v>
       </c>
-      <c r="G17" s="15">
+      <c r="G17" s="11">
         <v>6</v>
       </c>
-      <c r="H17" s="29"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="25" t="s">
+      <c r="H17" s="23"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="19" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="E18" s="8">
+      <c r="E18" s="7">
         <v>2</v>
       </c>
-      <c r="F18" s="8">
+      <c r="F18" s="7">
         <v>1</v>
       </c>
-      <c r="G18" s="8">
+      <c r="G18" s="7">
         <v>6</v>
       </c>
-      <c r="H18" s="27"/>
+      <c r="H18" s="21"/>
     </row>
     <row r="19" spans="1:10" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="D19" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E19" s="8">
+      <c r="E19" s="7">
         <v>2</v>
       </c>
-      <c r="F19" s="8">
+      <c r="F19" s="7">
         <v>1</v>
       </c>
-      <c r="G19" s="8">
+      <c r="G19" s="7">
         <v>3</v>
       </c>
-      <c r="H19" s="27"/>
+      <c r="H19" s="21"/>
     </row>
     <row r="20" spans="1:10" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="D20" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E20" s="8">
+      <c r="E20" s="7">
         <v>2</v>
       </c>
-      <c r="F20" s="8">
+      <c r="F20" s="7">
         <v>2</v>
       </c>
-      <c r="G20" s="8">
+      <c r="G20" s="7">
         <v>3</v>
       </c>
-      <c r="H20" s="27"/>
+      <c r="H20" s="21"/>
     </row>
     <row r="21" spans="1:10" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="11" t="s">
+      <c r="A21" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="12" t="s">
+      <c r="C21" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D21" s="12" t="s">
+      <c r="D21" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="E21" s="12">
+      <c r="E21" s="9">
         <v>2</v>
       </c>
-      <c r="F21" s="12" t="s">
+      <c r="F21" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="G21" s="12">
+      <c r="G21" s="9">
         <v>33</v>
       </c>
-      <c r="H21" s="30"/>
+      <c r="H21" s="24"/>
     </row>
     <row r="22" spans="1:10" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>

--- a/MasterDegree_StudyPlan.xlsx
+++ b/MasterDegree_StudyPlan.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\GitHub\Repo\Master-courses\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Repo\Master-courses\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0725186E-AF3B-4780-B6BD-5AEFCAF8ABB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FE22213-3885-4FD5-A129-6093487175D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9CCEDFCE-005C-40C2-92E8-4E076261F21E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9CCEDFCE-005C-40C2-92E8-4E076261F21E}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="61">
   <si>
     <t>Computability</t>
   </si>
@@ -550,9 +550,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -581,6 +578,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -588,61 +588,6 @@
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="13">
-    <dxf>
-      <font>
-        <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -853,6 +798,61 @@
         <horizontal style="thin">
           <color auto="1"/>
         </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -1061,14 +1061,14 @@
     <sortCondition ref="H4:H21"/>
   </sortState>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{030FDB74-6B11-48DD-A02F-DBE88F27EB4F}" name="Course" dataDxfId="0"/>
-    <tableColumn id="2" xr3:uid="{B359D6B6-2405-42B9-80DD-CF995BBC33B1}" name="Professor" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{C2D716C1-F051-48A0-9247-54C3A56FBE0F}" name="Type" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{8BF37862-6EAD-47FB-BE66-14C3DACF2F7C}" name="Examination Method" dataDxfId="6"/>
-    <tableColumn id="9" xr3:uid="{65F15266-CF73-4302-BA82-7B61D4442B2D}" name="Year" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{0C60A9B7-BB80-49F0-A892-4A29BA4B6C00}" name="Semester" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{AF4E938B-3794-456A-BD30-86A1BEC96769}" name="ETCS" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{F555908D-5B70-4AEA-B0EB-22543AA6A3AF}" name="PASSED" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{030FDB74-6B11-48DD-A02F-DBE88F27EB4F}" name="Course" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{B359D6B6-2405-42B9-80DD-CF995BBC33B1}" name="Professor" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{C2D716C1-F051-48A0-9247-54C3A56FBE0F}" name="Type" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{8BF37862-6EAD-47FB-BE66-14C3DACF2F7C}" name="Examination Method" dataDxfId="4"/>
+    <tableColumn id="9" xr3:uid="{65F15266-CF73-4302-BA82-7B61D4442B2D}" name="Year" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{0C60A9B7-BB80-49F0-A892-4A29BA4B6C00}" name="Semester" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{AF4E938B-3794-456A-BD30-86A1BEC96769}" name="ETCS" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{F555908D-5B70-4AEA-B0EB-22543AA6A3AF}" name="PASSED" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1373,8 +1373,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89E4B725-BD0D-4291-9550-3225AF05D5FC}">
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1393,36 +1393,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
+      <c r="A2" s="35"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="25"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
+      <c r="A3" s="35"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
     </row>
     <row r="4" spans="1:11" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
@@ -1451,14 +1451,14 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="27" t="s">
         <v>54</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>51</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>10</v>
@@ -1477,7 +1477,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="28" t="s">
+      <c r="A6" s="27" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="7" t="s">
@@ -1504,7 +1504,7 @@
       <c r="I6" s="2"/>
     </row>
     <row r="7" spans="1:11" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="28" t="s">
         <v>16</v>
       </c>
       <c r="B7" s="7" t="s">
@@ -1532,7 +1532,7 @@
       <c r="K7" s="2"/>
     </row>
     <row r="8" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="29" t="s">
+      <c r="A8" s="28" t="s">
         <v>40</v>
       </c>
       <c r="B8" s="7" t="s">
@@ -1557,7 +1557,7 @@
       <c r="J8" s="18"/>
     </row>
     <row r="9" spans="1:11" ht="59.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="30" t="s">
+      <c r="A9" s="29" t="s">
         <v>18</v>
       </c>
       <c r="B9" s="14" t="s">
@@ -1585,132 +1585,135 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="31" t="s">
+      <c r="A10" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="B10" s="26" t="s">
+      <c r="B10" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="26" t="s">
+      <c r="C10" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="26" t="s">
+      <c r="D10" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="26">
+      <c r="E10" s="25">
         <v>1</v>
       </c>
-      <c r="F10" s="26">
+      <c r="F10" s="25">
         <v>2</v>
       </c>
-      <c r="G10" s="26">
+      <c r="G10" s="25">
         <v>6</v>
       </c>
-      <c r="H10" s="27"/>
+      <c r="H10" s="26"/>
       <c r="J10" s="13" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="59.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="32" t="s">
+      <c r="A11" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="26" t="s">
+      <c r="B11" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="26" t="s">
+      <c r="C11" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="26" t="s">
+      <c r="D11" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="E11" s="26">
+      <c r="E11" s="25">
         <v>1</v>
       </c>
-      <c r="F11" s="26">
+      <c r="F11" s="25">
         <v>2</v>
       </c>
-      <c r="G11" s="26">
+      <c r="G11" s="25">
         <v>6</v>
       </c>
-      <c r="H11" s="27"/>
+      <c r="H11" s="26"/>
     </row>
     <row r="12" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="31" t="s">
+      <c r="A12" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="26" t="s">
+      <c r="B12" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" s="26" t="s">
+      <c r="C12" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="E12" s="26">
+      <c r="E12" s="11">
         <v>1</v>
       </c>
-      <c r="F12" s="26">
+      <c r="F12" s="11">
         <v>2</v>
       </c>
-      <c r="G12" s="26">
+      <c r="G12" s="11">
         <v>6</v>
       </c>
-      <c r="H12" s="27"/>
+      <c r="H12" s="23"/>
       <c r="I12" s="2"/>
+      <c r="J12" s="19" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="13" spans="1:11" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="31" t="s">
+      <c r="A13" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="B13" s="26" t="s">
+      <c r="B13" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="C13" s="26" t="s">
+      <c r="C13" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="26" t="s">
+      <c r="D13" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="E13" s="26">
+      <c r="E13" s="25">
         <v>1</v>
       </c>
-      <c r="F13" s="26">
+      <c r="F13" s="25">
         <v>2</v>
       </c>
-      <c r="G13" s="26">
+      <c r="G13" s="25">
         <v>6</v>
       </c>
-      <c r="H13" s="27"/>
+      <c r="H13" s="26"/>
     </row>
     <row r="14" spans="1:11" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="32" t="s">
+      <c r="A14" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="B14" s="26" t="s">
+      <c r="B14" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="C14" s="26" t="s">
+      <c r="C14" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="26" t="s">
+      <c r="D14" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="26">
+      <c r="E14" s="25">
         <v>1</v>
       </c>
-      <c r="F14" s="26">
+      <c r="F14" s="25">
         <v>2</v>
       </c>
-      <c r="G14" s="26">
+      <c r="G14" s="25">
         <v>6</v>
       </c>
-      <c r="H14" s="27"/>
+      <c r="H14" s="26"/>
       <c r="J14" s="20"/>
     </row>
     <row r="15" spans="1:11" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="28" t="s">
+      <c r="A15" s="27" t="s">
         <v>29</v>
       </c>
       <c r="B15" s="7" t="s">
@@ -1734,7 +1737,7 @@
       <c r="H15" s="21"/>
     </row>
     <row r="16" spans="1:11" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="33" t="s">
+      <c r="A16" s="32" t="s">
         <v>24</v>
       </c>
       <c r="B16" s="11" t="s">
@@ -1762,7 +1765,7 @@
       <c r="K16" s="2"/>
     </row>
     <row r="17" spans="1:10" ht="54.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="34" t="s">
+      <c r="A17" s="33" t="s">
         <v>21</v>
       </c>
       <c r="B17" s="11" t="s">
@@ -1790,7 +1793,7 @@
       </c>
     </row>
     <row r="18" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="29" t="s">
+      <c r="A18" s="28" t="s">
         <v>42</v>
       </c>
       <c r="B18" s="7" t="s">
@@ -1814,7 +1817,7 @@
       <c r="H18" s="21"/>
     </row>
     <row r="19" spans="1:10" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="29" t="s">
+      <c r="A19" s="28" t="s">
         <v>34</v>
       </c>
       <c r="B19" s="7" t="s">
@@ -1838,7 +1841,7 @@
       <c r="H19" s="21"/>
     </row>
     <row r="20" spans="1:10" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="29" t="s">
+      <c r="A20" s="28" t="s">
         <v>36</v>
       </c>
       <c r="B20" s="7" t="s">
@@ -1862,7 +1865,7 @@
       <c r="H20" s="21"/>
     </row>
     <row r="21" spans="1:10" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="35" t="s">
+      <c r="A21" s="34" t="s">
         <v>37</v>
       </c>
       <c r="B21" s="9" t="s">

--- a/MasterDegree_StudyPlan.xlsx
+++ b/MasterDegree_StudyPlan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Repo\Master-courses\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FE22213-3885-4FD5-A129-6093487175D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C9E7C14-1CEF-4B0A-8C19-A9843CCBD393}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9CCEDFCE-005C-40C2-92E8-4E076261F21E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="62">
   <si>
     <t>Computability</t>
   </si>
@@ -243,6 +243,9 @@
       </rPr>
       <t>+ oral</t>
     </r>
+  </si>
+  <si>
+    <t>Look "Web applications" (DEI)</t>
   </si>
 </sst>
 </file>
@@ -480,7 +483,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -582,6 +585,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1373,8 +1379,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89E4B725-BD0D-4291-9550-3225AF05D5FC}">
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1424,7 +1430,7 @@
       <c r="G3" s="35"/>
       <c r="H3" s="35"/>
     </row>
-    <row r="4" spans="1:11" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
@@ -1448,6 +1454,9 @@
       </c>
       <c r="H4" s="6" t="s">
         <v>57</v>
+      </c>
+      <c r="J4" s="36" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">

--- a/MasterDegree_StudyPlan.xlsx
+++ b/MasterDegree_StudyPlan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Repo\Master-courses\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\GitHub\Repo\Master-courses\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C9E7C14-1CEF-4B0A-8C19-A9843CCBD393}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E54469F0-8797-4FF9-8818-97F5FA233471}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9CCEDFCE-005C-40C2-92E8-4E076261F21E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9CCEDFCE-005C-40C2-92E8-4E076261F21E}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="61">
   <si>
     <t>Computability</t>
   </si>
@@ -225,9 +225,6 @@
     <t>PASSED</t>
   </si>
   <si>
-    <t>CHOOSE ANOTHER MINOR/MAJOR</t>
-  </si>
-  <si>
     <t xml:space="preserve">CHOOSE ANOTHER FREE CHOICE </t>
   </si>
   <si>
@@ -252,7 +249,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -321,13 +318,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -483,7 +473,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -532,9 +522,6 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -583,17 +570,106 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="23">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC000"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC000"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -1061,20 +1137,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F8406AB2-104B-4585-87AD-689DBD0111DE}" name="Tabella2" displayName="Tabella2" ref="A4:H21" totalsRowShown="0" headerRowDxfId="12" dataDxfId="10" headerRowBorderDxfId="11" tableBorderDxfId="9" totalsRowBorderDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F8406AB2-104B-4585-87AD-689DBD0111DE}" name="Tabella2" displayName="Tabella2" ref="A4:H21" totalsRowShown="0" headerRowDxfId="22" dataDxfId="20" headerRowBorderDxfId="21" tableBorderDxfId="19" totalsRowBorderDxfId="18">
   <autoFilter ref="A4:H21" xr:uid="{F8406AB2-104B-4585-87AD-689DBD0111DE}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:H21">
-    <sortCondition ref="H4:H21"/>
+    <sortCondition sortBy="cellColor" ref="D4:D21" dxfId="1"/>
   </sortState>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{030FDB74-6B11-48DD-A02F-DBE88F27EB4F}" name="Course" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{B359D6B6-2405-42B9-80DD-CF995BBC33B1}" name="Professor" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{C2D716C1-F051-48A0-9247-54C3A56FBE0F}" name="Type" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{8BF37862-6EAD-47FB-BE66-14C3DACF2F7C}" name="Examination Method" dataDxfId="4"/>
-    <tableColumn id="9" xr3:uid="{65F15266-CF73-4302-BA82-7B61D4442B2D}" name="Year" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{0C60A9B7-BB80-49F0-A892-4A29BA4B6C00}" name="Semester" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{AF4E938B-3794-456A-BD30-86A1BEC96769}" name="ETCS" dataDxfId="1"/>
-    <tableColumn id="7" xr3:uid="{F555908D-5B70-4AEA-B0EB-22543AA6A3AF}" name="PASSED" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{030FDB74-6B11-48DD-A02F-DBE88F27EB4F}" name="Course" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{B359D6B6-2405-42B9-80DD-CF995BBC33B1}" name="Professor" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{C2D716C1-F051-48A0-9247-54C3A56FBE0F}" name="Type" dataDxfId="15"/>
+    <tableColumn id="4" xr3:uid="{8BF37862-6EAD-47FB-BE66-14C3DACF2F7C}" name="Examination Method" dataDxfId="14"/>
+    <tableColumn id="9" xr3:uid="{65F15266-CF73-4302-BA82-7B61D4442B2D}" name="Year" dataDxfId="13"/>
+    <tableColumn id="5" xr3:uid="{0C60A9B7-BB80-49F0-A892-4A29BA4B6C00}" name="Semester" dataDxfId="12"/>
+    <tableColumn id="6" xr3:uid="{AF4E938B-3794-456A-BD30-86A1BEC96769}" name="ETCS" dataDxfId="11"/>
+    <tableColumn id="7" xr3:uid="{F555908D-5B70-4AEA-B0EB-22543AA6A3AF}" name="PASSED" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1379,8 +1455,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89E4B725-BD0D-4291-9550-3225AF05D5FC}">
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1455,354 +1531,351 @@
       <c r="H4" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="J4" s="36" t="s">
-        <v>61</v>
-      </c>
     </row>
     <row r="5" spans="1:11" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="7" t="s">
+      <c r="A5" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="24">
         <v>1</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="24">
+        <v>2</v>
+      </c>
+      <c r="G5" s="24">
+        <v>6</v>
+      </c>
+      <c r="H5" s="25"/>
+      <c r="J5" s="17" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="E6" s="24">
         <v>1</v>
       </c>
-      <c r="G5" s="7">
+      <c r="F6" s="24">
+        <v>2</v>
+      </c>
+      <c r="G6" s="24">
         <v>6</v>
       </c>
-      <c r="H5" s="21" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="7" t="s">
+      <c r="H6" s="25"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="13" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" s="24">
         <v>1</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="F7" s="24">
         <v>2</v>
       </c>
-      <c r="D6" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="7">
-        <v>1</v>
-      </c>
-      <c r="F6" s="7">
-        <v>1</v>
-      </c>
-      <c r="G6" s="7">
+      <c r="G7" s="24">
         <v>6</v>
       </c>
-      <c r="H6" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="I6" s="2"/>
-    </row>
-    <row r="7" spans="1:11" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E7" s="7">
-        <v>1</v>
-      </c>
-      <c r="F7" s="7">
-        <v>1</v>
-      </c>
-      <c r="G7" s="7">
-        <v>6</v>
-      </c>
-      <c r="H7" s="21" t="s">
-        <v>33</v>
-      </c>
+      <c r="H7" s="25"/>
       <c r="J7" s="16"/>
       <c r="K7" s="2"/>
     </row>
     <row r="8" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="7" t="s">
+      <c r="A8" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="24">
+        <v>1</v>
+      </c>
+      <c r="F8" s="24">
         <v>2</v>
       </c>
-      <c r="D8" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="7">
-        <v>1</v>
-      </c>
-      <c r="F8" s="7">
-        <v>1</v>
-      </c>
-      <c r="G8" s="7">
+      <c r="G8" s="24">
         <v>6</v>
       </c>
-      <c r="H8" s="21"/>
-      <c r="J8" s="18"/>
+      <c r="H8" s="25"/>
+      <c r="J8" s="34" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="9" spans="1:11" ht="59.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="24">
+        <v>1</v>
+      </c>
+      <c r="F9" s="24">
+        <v>2</v>
+      </c>
+      <c r="G9" s="24">
+        <v>6</v>
+      </c>
+      <c r="H9" s="25"/>
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="1:11" ht="67.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B10" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C10" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="D10" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="E9" s="14">
+      <c r="E10" s="14">
         <v>1</v>
       </c>
-      <c r="F9" s="14">
+      <c r="F10" s="14">
         <v>1</v>
       </c>
-      <c r="G9" s="14">
+      <c r="G10" s="14">
         <v>6</v>
       </c>
-      <c r="H9" s="22"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="17" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="B10" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="25" t="s">
+      <c r="H10" s="21"/>
+    </row>
+    <row r="11" spans="1:11" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" s="11">
+        <v>1</v>
+      </c>
+      <c r="F11" s="11">
         <v>2</v>
       </c>
-      <c r="D10" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="25">
-        <v>1</v>
-      </c>
-      <c r="F10" s="25">
-        <v>2</v>
-      </c>
-      <c r="G10" s="25">
+      <c r="G11" s="11">
         <v>6</v>
       </c>
-      <c r="H10" s="26"/>
-      <c r="J10" s="13" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="59.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="E11" s="25">
-        <v>1</v>
-      </c>
-      <c r="F11" s="25">
-        <v>2</v>
-      </c>
-      <c r="G11" s="25">
-        <v>6</v>
-      </c>
-      <c r="H11" s="26"/>
-    </row>
-    <row r="12" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H11" s="22"/>
+      <c r="J11" s="36" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="32" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C12" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="D12" s="11" t="s">
-        <v>45</v>
+      <c r="D12" s="12" t="s">
+        <v>23</v>
       </c>
       <c r="E12" s="11">
+        <v>2</v>
+      </c>
+      <c r="F12" s="11">
         <v>1</v>
-      </c>
-      <c r="F12" s="11">
-        <v>2</v>
       </c>
       <c r="G12" s="11">
         <v>6</v>
       </c>
-      <c r="H12" s="23"/>
+      <c r="H12" s="22"/>
       <c r="I12" s="2"/>
-      <c r="J12" s="19" t="s">
-        <v>59</v>
+      <c r="J12" s="18" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="B13" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="C13" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="E13" s="25">
+      <c r="A13" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="7">
         <v>1</v>
       </c>
-      <c r="F13" s="25">
+      <c r="F13" s="7">
+        <v>1</v>
+      </c>
+      <c r="G13" s="7">
+        <v>6</v>
+      </c>
+      <c r="H13" s="20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G13" s="25">
+      <c r="D14" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="7">
+        <v>1</v>
+      </c>
+      <c r="F14" s="7">
+        <v>1</v>
+      </c>
+      <c r="G14" s="7">
         <v>6</v>
       </c>
-      <c r="H13" s="26"/>
-    </row>
-    <row r="14" spans="1:11" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="B14" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="C14" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" s="25">
-        <v>1</v>
-      </c>
-      <c r="F14" s="25">
-        <v>2</v>
-      </c>
-      <c r="G14" s="25">
-        <v>6</v>
-      </c>
-      <c r="H14" s="26"/>
-      <c r="J14" s="20"/>
+      <c r="H14" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="J14" s="19"/>
     </row>
     <row r="15" spans="1:11" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="27" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="E15" s="7">
         <v>1</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="F15" s="7">
+        <v>1</v>
+      </c>
+      <c r="G15" s="7">
+        <v>6</v>
+      </c>
+      <c r="H15" s="20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="7">
+        <v>1</v>
+      </c>
+      <c r="F16" s="7">
+        <v>1</v>
+      </c>
+      <c r="G16" s="7">
+        <v>6</v>
+      </c>
+      <c r="H16" s="20"/>
+      <c r="J16" s="37"/>
+      <c r="K16" s="2"/>
+    </row>
+    <row r="17" spans="1:9" ht="54.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="7">
+        <v>1</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="G15" s="7">
+      <c r="G17" s="7">
         <v>3</v>
       </c>
-      <c r="H15" s="21"/>
-    </row>
-    <row r="16" spans="1:11" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="E16" s="11">
-        <v>2</v>
-      </c>
-      <c r="F16" s="11">
-        <v>2</v>
-      </c>
-      <c r="G16" s="11">
-        <v>6</v>
-      </c>
-      <c r="H16" s="23"/>
-      <c r="J16" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="K16" s="2"/>
-    </row>
-    <row r="17" spans="1:10" ht="54.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17" s="11">
-        <v>2</v>
-      </c>
-      <c r="F17" s="11">
-        <v>1</v>
-      </c>
-      <c r="G17" s="11">
-        <v>6</v>
-      </c>
-      <c r="H17" s="23"/>
+      <c r="H17" s="20"/>
       <c r="I17" s="10"/>
-      <c r="J17" s="19" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="28" t="s">
+    </row>
+    <row r="18" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="27" t="s">
         <v>42</v>
       </c>
       <c r="B18" s="7" t="s">
@@ -1823,10 +1896,10 @@
       <c r="G18" s="7">
         <v>6</v>
       </c>
-      <c r="H18" s="21"/>
-    </row>
-    <row r="19" spans="1:10" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="28" t="s">
+      <c r="H18" s="20"/>
+    </row>
+    <row r="19" spans="1:9" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="27" t="s">
         <v>34</v>
       </c>
       <c r="B19" s="7" t="s">
@@ -1847,10 +1920,10 @@
       <c r="G19" s="7">
         <v>3</v>
       </c>
-      <c r="H19" s="21"/>
-    </row>
-    <row r="20" spans="1:10" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="28" t="s">
+      <c r="H19" s="20"/>
+    </row>
+    <row r="20" spans="1:9" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="27" t="s">
         <v>36</v>
       </c>
       <c r="B20" s="7" t="s">
@@ -1871,10 +1944,10 @@
       <c r="G20" s="7">
         <v>3</v>
       </c>
-      <c r="H20" s="21"/>
-    </row>
-    <row r="21" spans="1:10" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="34" t="s">
+      <c r="H20" s="20"/>
+    </row>
+    <row r="21" spans="1:9" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="33" t="s">
         <v>37</v>
       </c>
       <c r="B21" s="9" t="s">
@@ -1895,9 +1968,9 @@
       <c r="G21" s="9">
         <v>33</v>
       </c>
-      <c r="H21" s="24"/>
-    </row>
-    <row r="22" spans="1:10" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H21" s="23"/>
+    </row>
+    <row r="22" spans="1:9" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>

--- a/MasterDegree_StudyPlan.xlsx
+++ b/MasterDegree_StudyPlan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\GitHub\Repo\Master-courses\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E54469F0-8797-4FF9-8818-97F5FA233471}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD27A132-6FF9-498D-82A7-AA932E5D93A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9CCEDFCE-005C-40C2-92E8-4E076261F21E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="62">
   <si>
     <t>Computability</t>
   </si>
@@ -225,9 +225,6 @@
     <t>PASSED</t>
   </si>
   <si>
-    <t xml:space="preserve">CHOOSE ANOTHER FREE CHOICE </t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Project </t>
     </r>
@@ -244,12 +241,18 @@
   <si>
     <t>Look "Web applications" (DEI)</t>
   </si>
+  <si>
+    <t>CHOOSE ANOTHER COURSE</t>
+  </si>
+  <si>
+    <t>LEGEND</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -323,6 +326,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Agency FB"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Agency FB"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -473,7 +490,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -494,9 +511,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -507,24 +521,12 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -573,103 +575,29 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="23">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC000"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC000"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="13">
     <dxf>
       <font>
         <strike val="0"/>
@@ -1137,20 +1065,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F8406AB2-104B-4585-87AD-689DBD0111DE}" name="Tabella2" displayName="Tabella2" ref="A4:H21" totalsRowShown="0" headerRowDxfId="22" dataDxfId="20" headerRowBorderDxfId="21" tableBorderDxfId="19" totalsRowBorderDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F8406AB2-104B-4585-87AD-689DBD0111DE}" name="Tabella2" displayName="Tabella2" ref="A4:H21" totalsRowShown="0" headerRowDxfId="12" dataDxfId="10" headerRowBorderDxfId="11" tableBorderDxfId="9" totalsRowBorderDxfId="8">
   <autoFilter ref="A4:H21" xr:uid="{F8406AB2-104B-4585-87AD-689DBD0111DE}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:H21">
-    <sortCondition sortBy="cellColor" ref="D4:D21" dxfId="1"/>
+    <sortCondition descending="1" ref="H4:H21"/>
   </sortState>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{030FDB74-6B11-48DD-A02F-DBE88F27EB4F}" name="Course" dataDxfId="17"/>
-    <tableColumn id="2" xr3:uid="{B359D6B6-2405-42B9-80DD-CF995BBC33B1}" name="Professor" dataDxfId="16"/>
-    <tableColumn id="3" xr3:uid="{C2D716C1-F051-48A0-9247-54C3A56FBE0F}" name="Type" dataDxfId="15"/>
-    <tableColumn id="4" xr3:uid="{8BF37862-6EAD-47FB-BE66-14C3DACF2F7C}" name="Examination Method" dataDxfId="14"/>
-    <tableColumn id="9" xr3:uid="{65F15266-CF73-4302-BA82-7B61D4442B2D}" name="Year" dataDxfId="13"/>
-    <tableColumn id="5" xr3:uid="{0C60A9B7-BB80-49F0-A892-4A29BA4B6C00}" name="Semester" dataDxfId="12"/>
-    <tableColumn id="6" xr3:uid="{AF4E938B-3794-456A-BD30-86A1BEC96769}" name="ETCS" dataDxfId="11"/>
-    <tableColumn id="7" xr3:uid="{F555908D-5B70-4AEA-B0EB-22543AA6A3AF}" name="PASSED" dataDxfId="10"/>
+    <tableColumn id="1" xr3:uid="{030FDB74-6B11-48DD-A02F-DBE88F27EB4F}" name="Course" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{B359D6B6-2405-42B9-80DD-CF995BBC33B1}" name="Professor" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{C2D716C1-F051-48A0-9247-54C3A56FBE0F}" name="Type" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{8BF37862-6EAD-47FB-BE66-14C3DACF2F7C}" name="Examination Method" dataDxfId="4"/>
+    <tableColumn id="9" xr3:uid="{65F15266-CF73-4302-BA82-7B61D4442B2D}" name="Year" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{0C60A9B7-BB80-49F0-A892-4A29BA4B6C00}" name="Semester" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{AF4E938B-3794-456A-BD30-86A1BEC96769}" name="ETCS" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{F555908D-5B70-4AEA-B0EB-22543AA6A3AF}" name="PASSED" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1455,8 +1383,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89E4B725-BD0D-4291-9550-3225AF05D5FC}">
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1471,40 +1399,40 @@
     <col min="8" max="8" width="16.109375" customWidth="1"/>
     <col min="9" max="9" width="13.44140625" customWidth="1"/>
     <col min="10" max="10" width="19.77734375" customWidth="1"/>
-    <col min="11" max="11" width="13" customWidth="1"/>
+    <col min="11" max="11" width="19.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="35"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
+      <c r="A2" s="32"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="35"/>
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
+      <c r="A3" s="32"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
     </row>
     <row r="4" spans="1:11" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
@@ -1531,254 +1459,257 @@
       <c r="H4" s="6" t="s">
         <v>57</v>
       </c>
+      <c r="J4" s="31" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="5" spans="1:11" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="7">
+        <v>1</v>
+      </c>
+      <c r="F5" s="7">
+        <v>1</v>
+      </c>
+      <c r="G5" s="7">
+        <v>6</v>
+      </c>
+      <c r="H5" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5" s="33" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="7">
+        <v>1</v>
+      </c>
+      <c r="F6" s="7">
+        <v>1</v>
+      </c>
+      <c r="G6" s="7">
+        <v>6</v>
+      </c>
+      <c r="H6" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="I6" s="2"/>
+      <c r="J6" s="34" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="7">
+        <v>1</v>
+      </c>
+      <c r="F7" s="7">
+        <v>1</v>
+      </c>
+      <c r="G7" s="7">
+        <v>6</v>
+      </c>
+      <c r="H7" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="J7" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="K7" s="29" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="B8" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="C8" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="24" t="s">
+      <c r="D8" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="24">
+      <c r="E8" s="19">
         <v>1</v>
       </c>
-      <c r="F5" s="24">
+      <c r="F8" s="19">
         <v>2</v>
       </c>
-      <c r="G5" s="24">
+      <c r="G8" s="19">
         <v>6</v>
       </c>
-      <c r="H5" s="25"/>
-      <c r="J5" s="17" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="30" t="s">
+      <c r="H8" s="20"/>
+    </row>
+    <row r="9" spans="1:11" ht="59.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="24" t="s">
+      <c r="B9" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="C9" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="E6" s="24">
+      <c r="D9" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="E9" s="19">
         <v>1</v>
       </c>
-      <c r="F6" s="24">
+      <c r="F9" s="19">
         <v>2</v>
       </c>
-      <c r="G6" s="24">
+      <c r="G9" s="19">
         <v>6</v>
       </c>
-      <c r="H6" s="25"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="13" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="29" t="s">
+      <c r="H9" s="20"/>
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="1:11" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="B7" s="24" t="s">
+      <c r="B10" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="C7" s="24" t="s">
+      <c r="C10" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="24" t="s">
+      <c r="D10" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="E7" s="24">
+      <c r="E10" s="19">
         <v>1</v>
       </c>
-      <c r="F7" s="24">
+      <c r="F10" s="19">
         <v>2</v>
       </c>
-      <c r="G7" s="24">
+      <c r="G10" s="19">
         <v>6</v>
       </c>
-      <c r="H7" s="25"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="30" t="s">
+      <c r="H10" s="20"/>
+    </row>
+    <row r="11" spans="1:11" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="19">
+        <v>1</v>
+      </c>
+      <c r="F11" s="19">
+        <v>2</v>
+      </c>
+      <c r="G11" s="19">
+        <v>6</v>
+      </c>
+      <c r="H11" s="20"/>
+    </row>
+    <row r="12" spans="1:11" ht="64.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="19">
+        <v>1</v>
+      </c>
+      <c r="F12" s="19">
+        <v>1</v>
+      </c>
+      <c r="G12" s="19">
+        <v>6</v>
+      </c>
+      <c r="H12" s="20"/>
+      <c r="I12" s="2"/>
+    </row>
+    <row r="13" spans="1:11" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="E13" s="12">
+        <v>1</v>
+      </c>
+      <c r="F13" s="12">
+        <v>1</v>
+      </c>
+      <c r="G13" s="12">
+        <v>6</v>
+      </c>
+      <c r="H13" s="16"/>
+      <c r="J13" s="29"/>
+    </row>
+    <row r="14" spans="1:11" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="B8" s="24" t="s">
+      <c r="B14" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="24" t="s">
+      <c r="C14" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="D8" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="24">
-        <v>1</v>
-      </c>
-      <c r="F8" s="24">
-        <v>2</v>
-      </c>
-      <c r="G8" s="24">
-        <v>6</v>
-      </c>
-      <c r="H8" s="25"/>
-      <c r="J8" s="34" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="59.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="E9" s="24">
-        <v>1</v>
-      </c>
-      <c r="F9" s="24">
-        <v>2</v>
-      </c>
-      <c r="G9" s="24">
-        <v>6</v>
-      </c>
-      <c r="H9" s="25"/>
-      <c r="I9" s="2"/>
-    </row>
-    <row r="10" spans="1:11" ht="67.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="E10" s="14">
-        <v>1</v>
-      </c>
-      <c r="F10" s="14">
-        <v>1</v>
-      </c>
-      <c r="G10" s="14">
-        <v>6</v>
-      </c>
-      <c r="H10" s="21"/>
-    </row>
-    <row r="11" spans="1:11" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="E11" s="11">
-        <v>1</v>
-      </c>
-      <c r="F11" s="11">
-        <v>2</v>
-      </c>
-      <c r="G11" s="11">
-        <v>6</v>
-      </c>
-      <c r="H11" s="22"/>
-      <c r="J11" s="36" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12" s="11">
-        <v>2</v>
-      </c>
-      <c r="F12" s="11">
-        <v>1</v>
-      </c>
-      <c r="G12" s="11">
-        <v>6</v>
-      </c>
-      <c r="H12" s="22"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="18" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="26" t="s">
-        <v>54</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="7">
-        <v>1</v>
-      </c>
-      <c r="F13" s="7">
-        <v>1</v>
-      </c>
-      <c r="G13" s="7">
-        <v>6</v>
-      </c>
-      <c r="H13" s="20" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>2</v>
       </c>
       <c r="D14" s="7" t="s">
         <v>10</v>
@@ -1787,70 +1718,66 @@
         <v>1</v>
       </c>
       <c r="F14" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G14" s="7">
         <v>6</v>
       </c>
-      <c r="H14" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="J14" s="19"/>
+      <c r="H14" s="15"/>
+      <c r="J14" s="14"/>
     </row>
     <row r="15" spans="1:11" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" s="7" t="s">
+      <c r="A15" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="E15" s="7">
+      <c r="E15" s="10">
         <v>1</v>
       </c>
-      <c r="F15" s="7">
-        <v>1</v>
-      </c>
-      <c r="G15" s="7">
+      <c r="F15" s="10">
+        <v>2</v>
+      </c>
+      <c r="G15" s="10">
         <v>6</v>
       </c>
-      <c r="H15" s="20" t="s">
-        <v>33</v>
-      </c>
+      <c r="H15" s="17"/>
     </row>
     <row r="16" spans="1:11" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C16" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="10">
         <v>2</v>
       </c>
-      <c r="D16" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" s="7">
+      <c r="F16" s="10">
         <v>1</v>
       </c>
-      <c r="F16" s="7">
-        <v>1</v>
-      </c>
-      <c r="G16" s="7">
+      <c r="G16" s="10">
         <v>6</v>
       </c>
-      <c r="H16" s="20"/>
-      <c r="J16" s="37"/>
+      <c r="H16" s="17"/>
+      <c r="J16" s="29"/>
       <c r="K16" s="2"/>
     </row>
     <row r="17" spans="1:9" ht="54.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="26" t="s">
+      <c r="A17" s="21" t="s">
         <v>29</v>
       </c>
       <c r="B17" s="7" t="s">
@@ -1863,7 +1790,7 @@
         <v>13</v>
       </c>
       <c r="E17" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>35</v>
@@ -1871,11 +1798,11 @@
       <c r="G17" s="7">
         <v>3</v>
       </c>
-      <c r="H17" s="20"/>
-      <c r="I17" s="10"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="9"/>
     </row>
     <row r="18" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="27" t="s">
+      <c r="A18" s="22" t="s">
         <v>42</v>
       </c>
       <c r="B18" s="7" t="s">
@@ -1896,10 +1823,10 @@
       <c r="G18" s="7">
         <v>6</v>
       </c>
-      <c r="H18" s="20"/>
+      <c r="H18" s="15"/>
     </row>
     <row r="19" spans="1:9" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="27" t="s">
+      <c r="A19" s="22" t="s">
         <v>34</v>
       </c>
       <c r="B19" s="7" t="s">
@@ -1920,10 +1847,10 @@
       <c r="G19" s="7">
         <v>3</v>
       </c>
-      <c r="H19" s="20"/>
+      <c r="H19" s="15"/>
     </row>
     <row r="20" spans="1:9" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="27" t="s">
+      <c r="A20" s="22" t="s">
         <v>36</v>
       </c>
       <c r="B20" s="7" t="s">
@@ -1944,31 +1871,31 @@
       <c r="G20" s="7">
         <v>3</v>
       </c>
-      <c r="H20" s="20"/>
+      <c r="H20" s="15"/>
     </row>
     <row r="21" spans="1:9" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="33" t="s">
+      <c r="A21" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D21" s="9" t="s">
+      <c r="D21" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="E21" s="9">
+      <c r="E21" s="8">
         <v>2</v>
       </c>
-      <c r="F21" s="9" t="s">
+      <c r="F21" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="G21" s="9">
+      <c r="G21" s="8">
         <v>33</v>
       </c>
-      <c r="H21" s="23"/>
+      <c r="H21" s="18"/>
     </row>
     <row r="22" spans="1:9" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
@@ -1991,7 +1918,7 @@
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
   <tableParts count="1">
     <tablePart r:id="rId3"/>

--- a/MasterDegree_StudyPlan.xlsx
+++ b/MasterDegree_StudyPlan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\GitHub\Repo\Master-courses\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD27A132-6FF9-498D-82A7-AA932E5D93A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67D9316F-1207-42ED-90AF-4818A89BBB9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9CCEDFCE-005C-40C2-92E8-4E076261F21E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="61">
   <si>
     <t>Computability</t>
   </si>
@@ -140,13 +140,7 @@
     <t>X</t>
   </si>
   <si>
-    <t>Seminars and other activities</t>
-  </si>
-  <si>
     <t>Annual</t>
-  </si>
-  <si>
-    <t>Short internship</t>
   </si>
   <si>
     <t>Final exam</t>
@@ -246,6 +240,9 @@
   </si>
   <si>
     <t>LEGEND</t>
+  </si>
+  <si>
+    <t>Other training activities</t>
   </si>
 </sst>
 </file>
@@ -581,9 +578,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -592,6 +586,9 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -960,13 +957,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>1098240</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>46602</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1004,13 +1001,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>502472</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>571499</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>22860</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1065,10 +1062,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F8406AB2-104B-4585-87AD-689DBD0111DE}" name="Tabella2" displayName="Tabella2" ref="A4:H21" totalsRowShown="0" headerRowDxfId="12" dataDxfId="10" headerRowBorderDxfId="11" tableBorderDxfId="9" totalsRowBorderDxfId="8">
-  <autoFilter ref="A4:H21" xr:uid="{F8406AB2-104B-4585-87AD-689DBD0111DE}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:H21">
-    <sortCondition descending="1" ref="H4:H21"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F8406AB2-104B-4585-87AD-689DBD0111DE}" name="Tabella2" displayName="Tabella2" ref="A4:H20" totalsRowShown="0" headerRowDxfId="12" dataDxfId="10" headerRowBorderDxfId="11" tableBorderDxfId="9" totalsRowBorderDxfId="8">
+  <autoFilter ref="A4:H20" xr:uid="{F8406AB2-104B-4585-87AD-689DBD0111DE}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:H20">
+    <sortCondition descending="1" ref="H4:H20"/>
   </sortState>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{030FDB74-6B11-48DD-A02F-DBE88F27EB4F}" name="Course" dataDxfId="7"/>
@@ -1383,8 +1380,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89E4B725-BD0D-4291-9550-3225AF05D5FC}">
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1403,36 +1400,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
+      <c r="A1" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="32"/>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
+      <c r="A2" s="35"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="32"/>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
+      <c r="A3" s="35"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
     </row>
     <row r="4" spans="1:11" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
@@ -1457,18 +1454,18 @@
         <v>31</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J4" s="31" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="21" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>27</v>
@@ -1488,8 +1485,8 @@
       <c r="H5" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="J5" s="33" t="s">
-        <v>52</v>
+      <c r="J5" s="32" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -1518,8 +1515,8 @@
         <v>33</v>
       </c>
       <c r="I6" s="2"/>
-      <c r="J6" s="34" t="s">
-        <v>56</v>
+      <c r="J6" s="33" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -1533,7 +1530,7 @@
         <v>12</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E7" s="7">
         <v>1</v>
@@ -1547,16 +1544,16 @@
       <c r="H7" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="J7" s="35" t="s">
-        <v>60</v>
+      <c r="J7" s="34" t="s">
+        <v>58</v>
       </c>
       <c r="K7" s="29" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="24" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B8" s="19" t="s">
         <v>9</v>
@@ -1589,7 +1586,7 @@
         <v>12</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E9" s="19">
         <v>1</v>
@@ -1605,16 +1602,16 @@
     </row>
     <row r="10" spans="1:11" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="19" t="s">
         <v>46</v>
-      </c>
-      <c r="B10" s="19" t="s">
-        <v>48</v>
       </c>
       <c r="C10" s="19" t="s">
         <v>20</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E10" s="19">
         <v>1</v>
@@ -1638,7 +1635,7 @@
         <v>20</v>
       </c>
       <c r="D11" s="30" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E11" s="19">
         <v>1</v>
@@ -1653,7 +1650,7 @@
     </row>
     <row r="12" spans="1:11" ht="64.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="25" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B12" s="19" t="s">
         <v>3</v>
@@ -1676,7 +1673,7 @@
       <c r="H12" s="20"/>
       <c r="I12" s="2"/>
     </row>
-    <row r="13" spans="1:11" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" ht="61.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="23" t="s">
         <v>18</v>
       </c>
@@ -1687,7 +1684,7 @@
         <v>12</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E13" s="12">
         <v>1</v>
@@ -1703,10 +1700,10 @@
     </row>
     <row r="14" spans="1:11" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="22" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>20</v>
@@ -1734,10 +1731,10 @@
         <v>28</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E15" s="10">
         <v>1</v>
@@ -1758,7 +1755,7 @@
         <v>22</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D16" s="11" t="s">
         <v>23</v>
@@ -1793,7 +1790,7 @@
         <v>2</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G17" s="7">
         <v>3</v>
@@ -1803,7 +1800,7 @@
     </row>
     <row r="18" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="22" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>11</v>
@@ -1812,7 +1809,7 @@
         <v>12</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E18" s="7">
         <v>2</v>
@@ -1827,10 +1824,10 @@
     </row>
     <row r="19" spans="1:9" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="22" t="s">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>2</v>
@@ -1845,73 +1842,50 @@
         <v>1</v>
       </c>
       <c r="G19" s="7">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H19" s="15"/>
     </row>
     <row r="20" spans="1:9" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C20" s="7" t="s">
+      <c r="A20" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D20" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="E20" s="7">
+      <c r="E20" s="8">
         <v>2</v>
       </c>
-      <c r="F20" s="7">
-        <v>2</v>
-      </c>
-      <c r="G20" s="7">
-        <v>3</v>
-      </c>
-      <c r="H20" s="15"/>
+      <c r="F20" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G20" s="8">
+        <v>33</v>
+      </c>
+      <c r="H20" s="18"/>
     </row>
     <row r="21" spans="1:9" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="E21" s="8">
-        <v>2</v>
-      </c>
-      <c r="F21" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="G21" s="8">
-        <v>33</v>
-      </c>
-      <c r="H21" s="18"/>
-    </row>
-    <row r="22" spans="1:9" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="3" t="s">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G22" s="3">
+      <c r="G21" s="3">
         <f>SUBTOTAL(109,Tabella2[ETCS])</f>
         <v>120</v>
       </c>
-      <c r="H22" s="1"/>
-    </row>
+      <c r="H21" s="1"/>
+    </row>
+    <row r="22" spans="1:9" ht="32.4" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:H3"/>

--- a/MasterDegree_StudyPlan.xlsx
+++ b/MasterDegree_StudyPlan.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\GitHub\Repo\Master-courses\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67D9316F-1207-42ED-90AF-4818A89BBB9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A50919D-661D-4C41-9A82-CD70E393D41F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9CCEDFCE-005C-40C2-92E8-4E076261F21E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="60">
   <si>
     <t>Computability</t>
   </si>
@@ -231,9 +231,6 @@
       </rPr>
       <t>+ oral</t>
     </r>
-  </si>
-  <si>
-    <t>Look "Web applications" (DEI)</t>
   </si>
   <si>
     <t>CHOOSE ANOTHER COURSE</t>
@@ -487,7 +484,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -515,9 +512,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -588,6 +582,18 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1380,8 +1386,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89E4B725-BD0D-4291-9550-3225AF05D5FC}">
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1400,36 +1406,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="35"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
+      <c r="A2" s="34"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="35"/>
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
+      <c r="A3" s="34"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
     </row>
     <row r="4" spans="1:11" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
@@ -1456,12 +1462,12 @@
       <c r="H4" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="J4" s="31" t="s">
-        <v>59</v>
+      <c r="J4" s="30" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="20" t="s">
         <v>52</v>
       </c>
       <c r="B5" s="7" t="s">
@@ -1482,15 +1488,15 @@
       <c r="G5" s="7">
         <v>6</v>
       </c>
-      <c r="H5" s="15" t="s">
+      <c r="H5" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="J5" s="32" t="s">
+      <c r="J5" s="31" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="20" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="7" t="s">
@@ -1511,16 +1517,16 @@
       <c r="G6" s="7">
         <v>6</v>
       </c>
-      <c r="H6" s="15" t="s">
+      <c r="H6" s="14" t="s">
         <v>33</v>
       </c>
       <c r="I6" s="2"/>
-      <c r="J6" s="33" t="s">
+      <c r="J6" s="32" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="21" t="s">
         <v>16</v>
       </c>
       <c r="B7" s="7" t="s">
@@ -1541,190 +1547,188 @@
       <c r="G7" s="7">
         <v>6</v>
       </c>
-      <c r="H7" s="15" t="s">
+      <c r="H7" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="J7" s="34" t="s">
-        <v>58</v>
-      </c>
-      <c r="K7" s="29" t="s">
+      <c r="J7" s="33" t="s">
         <v>57</v>
       </c>
+      <c r="K7" s="28"/>
     </row>
     <row r="8" spans="1:11" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="19" t="s">
+      <c r="D8" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="19">
+      <c r="E8" s="18">
         <v>1</v>
       </c>
-      <c r="F8" s="19">
+      <c r="F8" s="18">
         <v>2</v>
       </c>
-      <c r="G8" s="19">
+      <c r="G8" s="18">
         <v>6</v>
       </c>
-      <c r="H8" s="20"/>
+      <c r="H8" s="19"/>
     </row>
     <row r="9" spans="1:11" ht="59.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="19" t="s">
+      <c r="D9" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="E9" s="19">
+      <c r="E9" s="18">
         <v>1</v>
       </c>
-      <c r="F9" s="19">
+      <c r="F9" s="18">
         <v>2</v>
       </c>
-      <c r="G9" s="19">
+      <c r="G9" s="18">
         <v>6</v>
       </c>
-      <c r="H9" s="20"/>
+      <c r="H9" s="19"/>
       <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:11" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="24" t="s">
+      <c r="A10" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="19" t="s">
+      <c r="D10" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="E10" s="19">
+      <c r="E10" s="18">
         <v>1</v>
       </c>
-      <c r="F10" s="19">
+      <c r="F10" s="18">
         <v>2</v>
       </c>
-      <c r="G10" s="19">
+      <c r="G10" s="18">
         <v>6</v>
       </c>
-      <c r="H10" s="20"/>
+      <c r="H10" s="19"/>
     </row>
     <row r="11" spans="1:11" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="24" t="s">
+      <c r="A11" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="30" t="s">
+      <c r="D11" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="E11" s="19">
+      <c r="E11" s="18">
         <v>1</v>
       </c>
-      <c r="F11" s="19">
+      <c r="F11" s="18">
         <v>2</v>
       </c>
-      <c r="G11" s="19">
+      <c r="G11" s="18">
         <v>6</v>
       </c>
-      <c r="H11" s="20"/>
+      <c r="H11" s="19"/>
     </row>
     <row r="12" spans="1:11" ht="64.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="19" t="s">
+      <c r="C12" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="30" t="s">
+      <c r="D12" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="19">
+      <c r="E12" s="18">
         <v>1</v>
       </c>
-      <c r="F12" s="19">
+      <c r="F12" s="18">
         <v>1</v>
       </c>
-      <c r="G12" s="19">
+      <c r="G12" s="18">
         <v>6</v>
       </c>
-      <c r="H12" s="20"/>
+      <c r="H12" s="19"/>
       <c r="I12" s="2"/>
     </row>
     <row r="13" spans="1:11" ht="61.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="23" t="s">
+      <c r="A13" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D13" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="E13" s="12">
+      <c r="E13" s="11">
         <v>1</v>
       </c>
-      <c r="F13" s="12">
+      <c r="F13" s="11">
         <v>1</v>
       </c>
-      <c r="G13" s="12">
+      <c r="G13" s="11">
         <v>6</v>
       </c>
-      <c r="H13" s="16"/>
-      <c r="J13" s="29"/>
+      <c r="H13" s="15"/>
+      <c r="J13" s="28"/>
     </row>
     <row r="14" spans="1:11" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="22" t="s">
+      <c r="A14" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="C14" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" s="7" t="s">
+      <c r="C14" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E14" s="10">
+        <v>2</v>
+      </c>
+      <c r="F14" s="10">
         <v>1</v>
       </c>
-      <c r="F14" s="7">
-        <v>2</v>
-      </c>
-      <c r="G14" s="7">
+      <c r="G14" s="10">
         <v>6</v>
       </c>
-      <c r="H14" s="15"/>
-      <c r="J14" s="14"/>
+      <c r="H14" s="16"/>
+      <c r="J14" s="13"/>
     </row>
     <row r="15" spans="1:11" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="26" t="s">
+      <c r="A15" s="25" t="s">
         <v>26</v>
       </c>
       <c r="B15" s="10" t="s">
@@ -1737,44 +1741,44 @@
         <v>43</v>
       </c>
       <c r="E15" s="10">
+        <v>2</v>
+      </c>
+      <c r="F15" s="10">
         <v>1</v>
-      </c>
-      <c r="F15" s="10">
-        <v>2</v>
       </c>
       <c r="G15" s="10">
         <v>6</v>
       </c>
-      <c r="H15" s="17"/>
+      <c r="H15" s="16"/>
     </row>
     <row r="16" spans="1:11" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="27" t="s">
+      <c r="A16" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="D16" s="11" t="s">
+      <c r="C16" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="E16" s="10">
+      <c r="E16" s="36">
         <v>2</v>
       </c>
-      <c r="F16" s="10">
+      <c r="F16" s="36">
         <v>1</v>
       </c>
-      <c r="G16" s="10">
+      <c r="G16" s="36">
         <v>6</v>
       </c>
-      <c r="H16" s="17"/>
-      <c r="J16" s="29"/>
+      <c r="H16" s="38"/>
+      <c r="J16" s="28"/>
       <c r="K16" s="2"/>
     </row>
     <row r="17" spans="1:9" ht="54.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="21" t="s">
+      <c r="A17" s="20" t="s">
         <v>29</v>
       </c>
       <c r="B17" s="7" t="s">
@@ -1795,11 +1799,11 @@
       <c r="G17" s="7">
         <v>3</v>
       </c>
-      <c r="H17" s="15"/>
+      <c r="H17" s="14"/>
       <c r="I17" s="9"/>
     </row>
     <row r="18" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="22" t="s">
+      <c r="A18" s="21" t="s">
         <v>40</v>
       </c>
       <c r="B18" s="7" t="s">
@@ -1820,11 +1824,11 @@
       <c r="G18" s="7">
         <v>6</v>
       </c>
-      <c r="H18" s="15"/>
+      <c r="H18" s="14"/>
     </row>
     <row r="19" spans="1:9" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="22" t="s">
-        <v>60</v>
+      <c r="A19" s="21" t="s">
+        <v>59</v>
       </c>
       <c r="B19" s="7" t="s">
         <v>36</v>
@@ -1844,10 +1848,10 @@
       <c r="G19" s="7">
         <v>6</v>
       </c>
-      <c r="H19" s="15"/>
+      <c r="H19" s="14"/>
     </row>
     <row r="20" spans="1:9" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="28" t="s">
+      <c r="A20" s="27" t="s">
         <v>35</v>
       </c>
       <c r="B20" s="8" t="s">
@@ -1868,7 +1872,7 @@
       <c r="G20" s="8">
         <v>33</v>
       </c>
-      <c r="H20" s="18"/>
+      <c r="H20" s="17"/>
     </row>
     <row r="21" spans="1:9" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>

--- a/MasterDegree_StudyPlan.xlsx
+++ b/MasterDegree_StudyPlan.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\GitHub\Repo\Master-courses\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A50919D-661D-4C41-9A82-CD70E393D41F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D9DF88D-A18E-46CB-9599-98153E3D0DD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9CCEDFCE-005C-40C2-92E8-4E076261F21E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="56">
   <si>
     <t>Computability</t>
   </si>
@@ -116,13 +116,7 @@
     <t>Francesco Clabot</t>
   </si>
   <si>
-    <t>Data mining</t>
-  </si>
-  <si>
     <t>Elective</t>
-  </si>
-  <si>
-    <t>Livio Finos</t>
   </si>
   <si>
     <t>B2 Productive skills</t>
@@ -186,16 +180,10 @@
     <t>Start-up in ICT</t>
   </si>
   <si>
-    <t>Security and risk: management and certifications</t>
-  </si>
-  <si>
     <t>Fabio D'Alessi</t>
   </si>
   <si>
     <t>Team project</t>
-  </si>
-  <si>
-    <t>Simone Soderi</t>
   </si>
   <si>
     <t>Thomas Marchioro</t>
@@ -233,13 +221,13 @@
     </r>
   </si>
   <si>
-    <t>CHOOSE ANOTHER COURSE</t>
-  </si>
-  <si>
     <t>LEGEND</t>
   </si>
   <si>
     <t>Other training activities</t>
+  </si>
+  <si>
+    <t>CHOOSE A COURSE</t>
   </si>
 </sst>
 </file>
@@ -581,6 +569,9 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -592,9 +583,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1071,7 +1059,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F8406AB2-104B-4585-87AD-689DBD0111DE}" name="Tabella2" displayName="Tabella2" ref="A4:H20" totalsRowShown="0" headerRowDxfId="12" dataDxfId="10" headerRowBorderDxfId="11" tableBorderDxfId="9" totalsRowBorderDxfId="8">
   <autoFilter ref="A4:H20" xr:uid="{F8406AB2-104B-4585-87AD-689DBD0111DE}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:H20">
-    <sortCondition descending="1" ref="H4:H20"/>
+    <sortCondition ref="H4:H20"/>
   </sortState>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{030FDB74-6B11-48DD-A02F-DBE88F27EB4F}" name="Course" dataDxfId="7"/>
@@ -1386,7 +1374,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89E4B725-BD0D-4291-9550-3225AF05D5FC}">
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
@@ -1406,36 +1394,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
+      <c r="A1" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="34"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
+      <c r="A2" s="35"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="34"/>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
+      <c r="A3" s="35"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
     </row>
     <row r="4" spans="1:11" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
@@ -1451,30 +1439,30 @@
         <v>7</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>8</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="J4" s="30" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>10</v>
@@ -1489,10 +1477,10 @@
         <v>6</v>
       </c>
       <c r="H5" s="14" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J5" s="31" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -1518,11 +1506,11 @@
         <v>6</v>
       </c>
       <c r="H6" s="14" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="32" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -1536,7 +1524,7 @@
         <v>12</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E7" s="7">
         <v>1</v>
@@ -1548,49 +1536,51 @@
         <v>6</v>
       </c>
       <c r="H7" s="14" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J7" s="33" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K7" s="28"/>
     </row>
     <row r="8" spans="1:11" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="B8" s="18" t="s">
+      <c r="A8" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="37">
+        <v>1</v>
+      </c>
+      <c r="F8" s="37">
+        <v>1</v>
+      </c>
+      <c r="G8" s="37">
+        <v>6</v>
+      </c>
+      <c r="H8" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="59.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C9" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="D9" s="18" t="s">
         <v>10</v>
-      </c>
-      <c r="E8" s="18">
-        <v>1</v>
-      </c>
-      <c r="F8" s="18">
-        <v>2</v>
-      </c>
-      <c r="G8" s="18">
-        <v>6</v>
-      </c>
-      <c r="H8" s="19"/>
-    </row>
-    <row r="9" spans="1:11" ht="59.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="18" t="s">
-        <v>56</v>
       </c>
       <c r="E9" s="18">
         <v>1</v>
@@ -1605,17 +1595,17 @@
       <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:11" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="23" t="s">
-        <v>44</v>
+      <c r="A10" s="24" t="s">
+        <v>14</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="E10" s="18">
         <v>1</v>
@@ -1630,16 +1620,16 @@
     </row>
     <row r="11" spans="1:11" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="23" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="C11" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="29" t="s">
-        <v>42</v>
+      <c r="D11" s="18" t="s">
+        <v>44</v>
       </c>
       <c r="E11" s="18">
         <v>1</v>
@@ -1653,23 +1643,23 @@
       <c r="H11" s="19"/>
     </row>
     <row r="12" spans="1:11" ht="64.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="24" t="s">
-        <v>38</v>
+      <c r="A12" s="23" t="s">
+        <v>24</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="C12" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="18">
+        <v>1</v>
+      </c>
+      <c r="F12" s="18">
         <v>2</v>
-      </c>
-      <c r="D12" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="18">
-        <v>1</v>
-      </c>
-      <c r="F12" s="18">
-        <v>1</v>
       </c>
       <c r="G12" s="18">
         <v>6</v>
@@ -1688,7 +1678,7 @@
         <v>12</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E13" s="11">
         <v>1</v>
@@ -1703,18 +1693,12 @@
       <c r="J13" s="28"/>
     </row>
     <row r="14" spans="1:11" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>48</v>
-      </c>
+      <c r="A14" s="26"/>
+      <c r="B14" s="10"/>
       <c r="C14" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>10</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="D14" s="10"/>
       <c r="E14" s="10">
         <v>2</v>
       </c>
@@ -1728,18 +1712,12 @@
       <c r="J14" s="13"/>
     </row>
     <row r="15" spans="1:11" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>28</v>
-      </c>
+      <c r="A15" s="25"/>
+      <c r="B15" s="10"/>
       <c r="C15" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>43</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="D15" s="10"/>
       <c r="E15" s="10">
         <v>2</v>
       </c>
@@ -1752,34 +1730,34 @@
       <c r="H15" s="16"/>
     </row>
     <row r="16" spans="1:11" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="35" t="s">
+      <c r="A16" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="36" t="s">
+      <c r="B16" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="36" t="s">
+      <c r="C16" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="37" t="s">
+      <c r="D16" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="E16" s="36">
+      <c r="E16" s="7">
         <v>2</v>
       </c>
-      <c r="F16" s="36">
-        <v>1</v>
-      </c>
-      <c r="G16" s="36">
+      <c r="F16" s="7">
+        <v>1</v>
+      </c>
+      <c r="G16" s="7">
         <v>6</v>
       </c>
-      <c r="H16" s="38"/>
+      <c r="H16" s="14"/>
       <c r="J16" s="28"/>
       <c r="K16" s="2"/>
     </row>
     <row r="17" spans="1:9" ht="54.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="20" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>9</v>
@@ -1794,7 +1772,7 @@
         <v>2</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G17" s="7">
         <v>3</v>
@@ -1804,7 +1782,7 @@
     </row>
     <row r="18" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="21" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>11</v>
@@ -1813,7 +1791,7 @@
         <v>12</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E18" s="7">
         <v>2</v>
@@ -1828,16 +1806,16 @@
     </row>
     <row r="19" spans="1:9" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="21" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>2</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E19" s="7">
         <v>2</v>
@@ -1852,22 +1830,22 @@
     </row>
     <row r="20" spans="1:9" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="27" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C20" s="8" t="s">
         <v>2</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E20" s="8">
         <v>2</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G20" s="8">
         <v>33</v>
@@ -1881,7 +1859,7 @@
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G21" s="3">
         <f>SUBTOTAL(109,Tabella2[ETCS])</f>

--- a/MasterDegree_StudyPlan.xlsx
+++ b/MasterDegree_StudyPlan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\GitHub\Repo\Master-courses\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D9DF88D-A18E-46CB-9599-98153E3D0DD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C591639-3521-4209-9703-7CF553681D65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9CCEDFCE-005C-40C2-92E8-4E076261F21E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="56">
   <si>
     <t>Computability</t>
   </si>
@@ -576,13 +576,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1375,7 +1375,7 @@
   <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1544,25 +1544,25 @@
       <c r="K7" s="28"/>
     </row>
     <row r="8" spans="1:11" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="36" t="s">
+      <c r="A8" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="37" t="s">
+      <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="37" t="s">
+      <c r="C8" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="38" t="s">
+      <c r="D8" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="37">
-        <v>1</v>
-      </c>
-      <c r="F8" s="37">
-        <v>1</v>
-      </c>
-      <c r="G8" s="37">
+      <c r="E8" s="7">
+        <v>1</v>
+      </c>
+      <c r="F8" s="7">
+        <v>1</v>
+      </c>
+      <c r="G8" s="7">
         <v>6</v>
       </c>
       <c r="H8" s="14" t="s">
@@ -1570,28 +1570,30 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="59.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="23" t="s">
+      <c r="A9" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="D9" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="18">
-        <v>1</v>
-      </c>
-      <c r="F9" s="18">
+      <c r="E9" s="37">
+        <v>1</v>
+      </c>
+      <c r="F9" s="37">
         <v>2</v>
       </c>
-      <c r="G9" s="18">
+      <c r="G9" s="37">
         <v>6</v>
       </c>
-      <c r="H9" s="19"/>
+      <c r="H9" s="38" t="s">
+        <v>31</v>
+      </c>
       <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:11" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">

--- a/MasterDegree_StudyPlan.xlsx
+++ b/MasterDegree_StudyPlan.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\GitHub\Repo\Master-courses\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C591639-3521-4209-9703-7CF553681D65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BB20F9D-88D9-4B8A-B41B-F26557F59E0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9CCEDFCE-005C-40C2-92E8-4E076261F21E}"/>
   </bookViews>
@@ -472,7 +472,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -539,9 +539,6 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -573,15 +570,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1375,7 +1363,7 @@
   <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1394,36 +1382,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="35"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
+      <c r="A2" s="34"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="35"/>
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
+      <c r="A3" s="34"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
     </row>
     <row r="4" spans="1:11" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
@@ -1450,7 +1438,7 @@
       <c r="H4" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="J4" s="30" t="s">
+      <c r="J4" s="29" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1479,7 +1467,7 @@
       <c r="H5" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="J5" s="31" t="s">
+      <c r="J5" s="30" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1509,7 +1497,7 @@
         <v>31</v>
       </c>
       <c r="I6" s="2"/>
-      <c r="J6" s="32" t="s">
+      <c r="J6" s="31" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1538,10 +1526,10 @@
       <c r="H7" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="J7" s="33" t="s">
+      <c r="J7" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="K7" s="28"/>
+      <c r="K7" s="27"/>
     </row>
     <row r="8" spans="1:11" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="21" t="s">
@@ -1553,7 +1541,7 @@
       <c r="C8" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="34" t="s">
+      <c r="D8" s="33" t="s">
         <v>10</v>
       </c>
       <c r="E8" s="7">
@@ -1570,55 +1558,55 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="59.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="36" t="s">
+      <c r="A9" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="37" t="s">
+      <c r="B9" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="37" t="s">
+      <c r="C9" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="37" t="s">
+      <c r="D9" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="37">
-        <v>1</v>
-      </c>
-      <c r="F9" s="37">
+      <c r="E9" s="7">
+        <v>1</v>
+      </c>
+      <c r="F9" s="7">
         <v>2</v>
       </c>
-      <c r="G9" s="37">
+      <c r="G9" s="7">
         <v>6</v>
       </c>
-      <c r="H9" s="38" t="s">
+      <c r="H9" s="14" t="s">
         <v>31</v>
       </c>
       <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:11" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="24" t="s">
+      <c r="A10" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="D10" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="E10" s="18">
-        <v>1</v>
-      </c>
-      <c r="F10" s="18">
+      <c r="E10" s="11">
+        <v>1</v>
+      </c>
+      <c r="F10" s="11">
         <v>2</v>
       </c>
-      <c r="G10" s="18">
+      <c r="G10" s="11">
         <v>6</v>
       </c>
-      <c r="H10" s="19"/>
+      <c r="H10" s="15"/>
     </row>
     <row r="11" spans="1:11" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="23" t="s">
@@ -1654,7 +1642,7 @@
       <c r="C12" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="29" t="s">
+      <c r="D12" s="28" t="s">
         <v>40</v>
       </c>
       <c r="E12" s="18">
@@ -1692,10 +1680,10 @@
         <v>6</v>
       </c>
       <c r="H13" s="15"/>
-      <c r="J13" s="28"/>
+      <c r="J13" s="27"/>
     </row>
     <row r="14" spans="1:11" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="26"/>
+      <c r="A14" s="25"/>
       <c r="B14" s="10"/>
       <c r="C14" s="10" t="s">
         <v>47</v>
@@ -1714,7 +1702,7 @@
       <c r="J14" s="13"/>
     </row>
     <row r="15" spans="1:11" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="25"/>
+      <c r="A15" s="24"/>
       <c r="B15" s="10"/>
       <c r="C15" s="10" t="s">
         <v>47</v>
@@ -1741,7 +1729,7 @@
       <c r="C16" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="34" t="s">
+      <c r="D16" s="33" t="s">
         <v>23</v>
       </c>
       <c r="E16" s="7">
@@ -1754,7 +1742,7 @@
         <v>6</v>
       </c>
       <c r="H16" s="14"/>
-      <c r="J16" s="28"/>
+      <c r="J16" s="27"/>
       <c r="K16" s="2"/>
     </row>
     <row r="17" spans="1:9" ht="54.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -1831,7 +1819,7 @@
       <c r="H19" s="14"/>
     </row>
     <row r="20" spans="1:9" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="27" t="s">
+      <c r="A20" s="26" t="s">
         <v>33</v>
       </c>
       <c r="B20" s="8" t="s">

--- a/MasterDegree_StudyPlan.xlsx
+++ b/MasterDegree_StudyPlan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\GitHub\Repo\Master-courses\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BB20F9D-88D9-4B8A-B41B-F26557F59E0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3EA2B94-FC56-4F12-828F-F2ADAD7D9798}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9CCEDFCE-005C-40C2-92E8-4E076261F21E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="57">
   <si>
     <t>Computability</t>
   </si>
@@ -228,6 +228,9 @@
   </si>
   <si>
     <t>CHOOSE A COURSE</t>
+  </si>
+  <si>
+    <t>Law and data?</t>
   </si>
 </sst>
 </file>
@@ -472,7 +475,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -503,9 +506,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -570,6 +570,21 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1363,7 +1378,7 @@
   <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1382,36 +1397,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="34"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
+      <c r="A2" s="33"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="34"/>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
+      <c r="A3" s="33"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
     </row>
     <row r="4" spans="1:11" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
@@ -1438,12 +1453,12 @@
       <c r="H4" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="J4" s="29" t="s">
+      <c r="J4" s="28" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="19" t="s">
         <v>48</v>
       </c>
       <c r="B5" s="7" t="s">
@@ -1464,15 +1479,15 @@
       <c r="G5" s="7">
         <v>6</v>
       </c>
-      <c r="H5" s="14" t="s">
+      <c r="H5" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="J5" s="30" t="s">
+      <c r="J5" s="29" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="19" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="7" t="s">
@@ -1493,16 +1508,16 @@
       <c r="G6" s="7">
         <v>6</v>
       </c>
-      <c r="H6" s="14" t="s">
+      <c r="H6" s="13" t="s">
         <v>31</v>
       </c>
       <c r="I6" s="2"/>
-      <c r="J6" s="31" t="s">
+      <c r="J6" s="30" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="20" t="s">
         <v>16</v>
       </c>
       <c r="B7" s="7" t="s">
@@ -1523,16 +1538,16 @@
       <c r="G7" s="7">
         <v>6</v>
       </c>
-      <c r="H7" s="14" t="s">
+      <c r="H7" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="J7" s="32" t="s">
+      <c r="J7" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="K7" s="27"/>
+      <c r="K7" s="26"/>
     </row>
     <row r="8" spans="1:11" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="20" t="s">
         <v>36</v>
       </c>
       <c r="B8" s="7" t="s">
@@ -1541,24 +1556,24 @@
       <c r="C8" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="33" t="s">
+      <c r="D8" s="32" t="s">
         <v>10</v>
       </c>
       <c r="E8" s="7">
         <v>1</v>
       </c>
       <c r="F8" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G8" s="7">
         <v>6</v>
       </c>
-      <c r="H8" s="14" t="s">
+      <c r="H8" s="13" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="59.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="19" t="s">
         <v>35</v>
       </c>
       <c r="B9" s="7" t="s">
@@ -1579,111 +1594,115 @@
       <c r="G9" s="7">
         <v>6</v>
       </c>
-      <c r="H9" s="14" t="s">
+      <c r="H9" s="13" t="s">
         <v>31</v>
       </c>
       <c r="I9" s="2"/>
     </row>
-    <row r="10" spans="1:11" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="22" t="s">
+    <row r="10" spans="1:11" ht="55.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" s="35">
+        <v>1</v>
+      </c>
+      <c r="F10" s="35">
+        <v>2</v>
+      </c>
+      <c r="G10" s="35">
+        <v>6</v>
+      </c>
+      <c r="H10" s="37" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B11" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C11" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D11" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E11" s="11">
         <v>1</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F11" s="11">
         <v>2</v>
       </c>
-      <c r="G10" s="11">
+      <c r="G11" s="11">
         <v>6</v>
       </c>
-      <c r="H10" s="15"/>
-    </row>
-    <row r="11" spans="1:11" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="23" t="s">
+      <c r="H11" s="14"/>
+    </row>
+    <row r="12" spans="1:11" ht="64.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B12" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C12" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="18" t="s">
+      <c r="D12" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="E11" s="18">
+      <c r="E12" s="11">
         <v>1</v>
       </c>
-      <c r="F11" s="18">
+      <c r="F12" s="11">
         <v>2</v>
       </c>
-      <c r="G11" s="18">
+      <c r="G12" s="11">
         <v>6</v>
       </c>
-      <c r="H11" s="19"/>
-    </row>
-    <row r="12" spans="1:11" ht="64.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="E12" s="18">
-        <v>1</v>
-      </c>
-      <c r="F12" s="18">
-        <v>2</v>
-      </c>
-      <c r="G12" s="18">
-        <v>6</v>
-      </c>
-      <c r="H12" s="19"/>
+      <c r="H12" s="14"/>
       <c r="I12" s="2"/>
     </row>
     <row r="13" spans="1:11" ht="61.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="E13" s="11">
+        <v>24</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" s="17">
         <v>1</v>
       </c>
-      <c r="F13" s="11">
-        <v>1</v>
-      </c>
-      <c r="G13" s="11">
+      <c r="F13" s="17">
+        <v>2</v>
+      </c>
+      <c r="G13" s="17">
         <v>6</v>
       </c>
-      <c r="H13" s="15"/>
-      <c r="J13" s="27"/>
+      <c r="H13" s="18"/>
+      <c r="J13" s="26"/>
     </row>
     <row r="14" spans="1:11" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="25"/>
+      <c r="A14" s="24" t="s">
+        <v>56</v>
+      </c>
       <c r="B14" s="10"/>
       <c r="C14" s="10" t="s">
         <v>47</v>
@@ -1698,11 +1717,11 @@
       <c r="G14" s="10">
         <v>6</v>
       </c>
-      <c r="H14" s="16"/>
-      <c r="J14" s="13"/>
+      <c r="H14" s="15"/>
+      <c r="J14" s="12"/>
     </row>
     <row r="15" spans="1:11" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="24"/>
+      <c r="A15" s="23"/>
       <c r="B15" s="10"/>
       <c r="C15" s="10" t="s">
         <v>47</v>
@@ -1717,10 +1736,10 @@
       <c r="G15" s="10">
         <v>6</v>
       </c>
-      <c r="H15" s="16"/>
+      <c r="H15" s="15"/>
     </row>
     <row r="16" spans="1:11" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="21" t="s">
+      <c r="A16" s="20" t="s">
         <v>21</v>
       </c>
       <c r="B16" s="7" t="s">
@@ -1729,7 +1748,7 @@
       <c r="C16" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="33" t="s">
+      <c r="D16" s="32" t="s">
         <v>23</v>
       </c>
       <c r="E16" s="7">
@@ -1741,12 +1760,12 @@
       <c r="G16" s="7">
         <v>6</v>
       </c>
-      <c r="H16" s="14"/>
-      <c r="J16" s="27"/>
+      <c r="H16" s="13"/>
+      <c r="J16" s="26"/>
       <c r="K16" s="2"/>
     </row>
     <row r="17" spans="1:9" ht="54.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="20" t="s">
+      <c r="A17" s="19" t="s">
         <v>27</v>
       </c>
       <c r="B17" s="7" t="s">
@@ -1767,11 +1786,11 @@
       <c r="G17" s="7">
         <v>3</v>
       </c>
-      <c r="H17" s="14"/>
+      <c r="H17" s="13"/>
       <c r="I17" s="9"/>
     </row>
     <row r="18" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="21" t="s">
+      <c r="A18" s="20" t="s">
         <v>38</v>
       </c>
       <c r="B18" s="7" t="s">
@@ -1792,10 +1811,10 @@
       <c r="G18" s="7">
         <v>6</v>
       </c>
-      <c r="H18" s="14"/>
+      <c r="H18" s="13"/>
     </row>
     <row r="19" spans="1:9" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="21" t="s">
+      <c r="A19" s="20" t="s">
         <v>54</v>
       </c>
       <c r="B19" s="7" t="s">
@@ -1816,10 +1835,10 @@
       <c r="G19" s="7">
         <v>6</v>
       </c>
-      <c r="H19" s="14"/>
+      <c r="H19" s="13"/>
     </row>
     <row r="20" spans="1:9" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="26" t="s">
+      <c r="A20" s="25" t="s">
         <v>33</v>
       </c>
       <c r="B20" s="8" t="s">
@@ -1840,7 +1859,7 @@
       <c r="G20" s="8">
         <v>33</v>
       </c>
-      <c r="H20" s="17"/>
+      <c r="H20" s="16"/>
     </row>
     <row r="21" spans="1:9" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>

--- a/MasterDegree_StudyPlan.xlsx
+++ b/MasterDegree_StudyPlan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\GitHub\Repo\Master-courses\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3EA2B94-FC56-4F12-828F-F2ADAD7D9798}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3670503-8A4A-4B69-91E5-780C7F8FDCD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9CCEDFCE-005C-40C2-92E8-4E076261F21E}"/>
   </bookViews>
@@ -107,9 +107,6 @@
     <t>Alessandro Brighente</t>
   </si>
   <si>
-    <t>Report during the course + multiple choice test</t>
-  </si>
-  <si>
     <t>IT service management</t>
   </si>
   <si>
@@ -183,9 +180,6 @@
     <t>Fabio D'Alessi</t>
   </si>
   <si>
-    <t>Team project</t>
-  </si>
-  <si>
     <t>Thomas Marchioro</t>
   </si>
   <si>
@@ -231,6 +225,12 @@
   </si>
   <si>
     <t>Law and data?</t>
+  </si>
+  <si>
+    <t>Team project + written</t>
+  </si>
+  <si>
+    <t>Report during the course + multiple choice final test</t>
   </si>
 </sst>
 </file>
@@ -475,7 +475,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -569,22 +569,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1378,7 +1366,7 @@
   <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1397,36 +1385,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
+      <c r="A1" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="33"/>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
+      <c r="A2" s="34"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="33"/>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
+      <c r="A3" s="34"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
     </row>
     <row r="4" spans="1:11" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
@@ -1442,30 +1430,30 @@
         <v>7</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>8</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H4" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="J4" s="28" t="s">
         <v>51</v>
-      </c>
-      <c r="J4" s="28" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="19" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>10</v>
@@ -1480,10 +1468,10 @@
         <v>6</v>
       </c>
       <c r="H5" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J5" s="29" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -1509,11 +1497,11 @@
         <v>6</v>
       </c>
       <c r="H6" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="30" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -1527,7 +1515,7 @@
         <v>12</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E7" s="7">
         <v>1</v>
@@ -1539,16 +1527,16 @@
         <v>6</v>
       </c>
       <c r="H7" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J7" s="31" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K7" s="26"/>
     </row>
-    <row r="8" spans="1:11" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="61.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>3</v>
@@ -1569,12 +1557,12 @@
         <v>6</v>
       </c>
       <c r="H8" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="59.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>9</v>
@@ -1595,34 +1583,34 @@
         <v>6</v>
       </c>
       <c r="H9" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I9" s="2"/>
     </row>
-    <row r="10" spans="1:11" ht="55.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="34" t="s">
+    <row r="10" spans="1:11" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="35" t="s">
+      <c r="B10" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="35" t="s">
+      <c r="C10" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="36" t="s">
-        <v>49</v>
-      </c>
-      <c r="E10" s="35">
+      <c r="D10" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" s="7">
         <v>1</v>
       </c>
-      <c r="F10" s="35">
+      <c r="F10" s="7">
         <v>2</v>
       </c>
-      <c r="G10" s="35">
+      <c r="G10" s="7">
         <v>6</v>
       </c>
-      <c r="H10" s="37" t="s">
-        <v>31</v>
+      <c r="H10" s="13" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -1636,7 +1624,7 @@
         <v>12</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E11" s="11">
         <v>1</v>
@@ -1650,17 +1638,17 @@
       <c r="H11" s="14"/>
     </row>
     <row r="12" spans="1:11" ht="64.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="38" t="s">
+      <c r="A12" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" s="11" t="s">
         <v>42</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>43</v>
       </c>
       <c r="C12" s="11" t="s">
         <v>20</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="E12" s="11">
         <v>1</v>
@@ -1676,16 +1664,16 @@
     </row>
     <row r="13" spans="1:11" ht="61.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="17" t="s">
         <v>24</v>
-      </c>
-      <c r="B13" s="17" t="s">
-        <v>25</v>
       </c>
       <c r="C13" s="17" t="s">
         <v>20</v>
       </c>
       <c r="D13" s="27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E13" s="17">
         <v>1</v>
@@ -1701,11 +1689,11 @@
     </row>
     <row r="14" spans="1:11" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="24" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B14" s="10"/>
       <c r="C14" s="10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D14" s="10"/>
       <c r="E14" s="10">
@@ -1724,7 +1712,7 @@
       <c r="A15" s="23"/>
       <c r="B15" s="10"/>
       <c r="C15" s="10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D15" s="10"/>
       <c r="E15" s="10">
@@ -1749,7 +1737,7 @@
         <v>20</v>
       </c>
       <c r="D16" s="32" t="s">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="E16" s="7">
         <v>2</v>
@@ -1766,7 +1754,7 @@
     </row>
     <row r="17" spans="1:9" ht="54.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>9</v>
@@ -1781,7 +1769,7 @@
         <v>2</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G17" s="7">
         <v>3</v>
@@ -1791,7 +1779,7 @@
     </row>
     <row r="18" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>11</v>
@@ -1800,7 +1788,7 @@
         <v>12</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E18" s="7">
         <v>2</v>
@@ -1815,16 +1803,16 @@
     </row>
     <row r="19" spans="1:9" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="20" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>2</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E19" s="7">
         <v>2</v>
@@ -1839,22 +1827,22 @@
     </row>
     <row r="20" spans="1:9" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C20" s="8" t="s">
         <v>2</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E20" s="8">
         <v>2</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G20" s="8">
         <v>33</v>
@@ -1868,7 +1856,7 @@
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G21" s="3">
         <f>SUBTOTAL(109,Tabella2[ETCS])</f>

--- a/MasterDegree_StudyPlan.xlsx
+++ b/MasterDegree_StudyPlan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\GitHub\Repo\Master-courses\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3670503-8A4A-4B69-91E5-780C7F8FDCD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C9CC177-A137-4FFF-A899-A5734CD054BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9CCEDFCE-005C-40C2-92E8-4E076261F21E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="57">
   <si>
     <t>Computability</t>
   </si>
@@ -174,9 +174,6 @@
     <t>Project + written</t>
   </si>
   <si>
-    <t>Start-up in ICT</t>
-  </si>
-  <si>
     <t>Fabio D'Alessi</t>
   </si>
   <si>
@@ -231,6 +228,9 @@
   </si>
   <si>
     <t>Report during the course + multiple choice final test</t>
+  </si>
+  <si>
+    <t>Start-Up in ICT</t>
   </si>
 </sst>
 </file>
@@ -521,12 +521,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -536,9 +530,6 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -551,9 +542,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -572,7 +560,19 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1365,8 +1365,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89E4B725-BD0D-4291-9550-3225AF05D5FC}">
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1385,36 +1385,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="34"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
+      <c r="A2" s="31"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="34"/>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
+      <c r="A3" s="31"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
     </row>
     <row r="4" spans="1:11" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
@@ -1439,18 +1439,18 @@
         <v>28</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="J4" s="28" t="s">
-        <v>51</v>
+        <v>48</v>
+      </c>
+      <c r="J4" s="24" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="19" t="s">
-        <v>46</v>
+      <c r="A5" s="17" t="s">
+        <v>45</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>25</v>
@@ -1470,12 +1470,12 @@
       <c r="H5" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="J5" s="29" t="s">
-        <v>44</v>
+      <c r="J5" s="25" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="17" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="7" t="s">
@@ -1500,12 +1500,12 @@
         <v>30</v>
       </c>
       <c r="I6" s="2"/>
-      <c r="J6" s="30" t="s">
-        <v>48</v>
+      <c r="J6" s="26" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="18" t="s">
         <v>16</v>
       </c>
       <c r="B7" s="7" t="s">
@@ -1529,13 +1529,13 @@
       <c r="H7" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="J7" s="31" t="s">
-        <v>53</v>
-      </c>
-      <c r="K7" s="26"/>
+      <c r="J7" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="K7" s="23"/>
     </row>
     <row r="8" spans="1:11" ht="61.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="18" t="s">
         <v>35</v>
       </c>
       <c r="B8" s="7" t="s">
@@ -1544,7 +1544,7 @@
       <c r="C8" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="32" t="s">
+      <c r="D8" s="28" t="s">
         <v>10</v>
       </c>
       <c r="E8" s="7">
@@ -1561,7 +1561,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="59.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="17" t="s">
         <v>34</v>
       </c>
       <c r="B9" s="7" t="s">
@@ -1588,7 +1588,7 @@
       <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:11" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="20" t="s">
+      <c r="A10" s="18" t="s">
         <v>18</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -1597,8 +1597,8 @@
       <c r="C10" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="32" t="s">
-        <v>47</v>
+      <c r="D10" s="28" t="s">
+        <v>46</v>
       </c>
       <c r="E10" s="7">
         <v>1</v>
@@ -1614,41 +1614,43 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="21" t="s">
+      <c r="A11" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" s="33">
+        <v>1</v>
+      </c>
+      <c r="F11" s="33">
+        <v>2</v>
+      </c>
+      <c r="G11" s="33">
+        <v>6</v>
+      </c>
+      <c r="H11" s="34" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="64.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B12" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C12" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="E11" s="11">
-        <v>1</v>
-      </c>
-      <c r="F11" s="11">
-        <v>2</v>
-      </c>
-      <c r="G11" s="11">
-        <v>6</v>
-      </c>
-      <c r="H11" s="14"/>
-    </row>
-    <row r="12" spans="1:11" ht="64.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="33" t="s">
-        <v>41</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>20</v>
-      </c>
       <c r="D12" s="11" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E12" s="11">
         <v>1</v>
@@ -1663,37 +1665,37 @@
       <c r="I12" s="2"/>
     </row>
     <row r="13" spans="1:11" ht="61.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="22" t="s">
+      <c r="A13" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="C13" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="27" t="s">
+      <c r="D13" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="E13" s="17">
+      <c r="E13" s="11">
         <v>1</v>
       </c>
-      <c r="F13" s="17">
+      <c r="F13" s="11">
         <v>2</v>
       </c>
-      <c r="G13" s="17">
+      <c r="G13" s="11">
         <v>6</v>
       </c>
-      <c r="H13" s="18"/>
-      <c r="J13" s="26"/>
+      <c r="H13" s="14"/>
+      <c r="J13" s="23"/>
     </row>
     <row r="14" spans="1:11" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="24" t="s">
-        <v>54</v>
+      <c r="A14" s="21" t="s">
+        <v>53</v>
       </c>
       <c r="B14" s="10"/>
       <c r="C14" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D14" s="10"/>
       <c r="E14" s="10">
@@ -1709,10 +1711,10 @@
       <c r="J14" s="12"/>
     </row>
     <row r="15" spans="1:11" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="23"/>
+      <c r="A15" s="20"/>
       <c r="B15" s="10"/>
       <c r="C15" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D15" s="10"/>
       <c r="E15" s="10">
@@ -1727,7 +1729,7 @@
       <c r="H15" s="15"/>
     </row>
     <row r="16" spans="1:11" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="20" t="s">
+      <c r="A16" s="18" t="s">
         <v>21</v>
       </c>
       <c r="B16" s="7" t="s">
@@ -1736,8 +1738,8 @@
       <c r="C16" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="32" t="s">
-        <v>56</v>
+      <c r="D16" s="28" t="s">
+        <v>55</v>
       </c>
       <c r="E16" s="7">
         <v>2</v>
@@ -1749,11 +1751,11 @@
         <v>6</v>
       </c>
       <c r="H16" s="13"/>
-      <c r="J16" s="26"/>
+      <c r="J16" s="23"/>
       <c r="K16" s="2"/>
     </row>
     <row r="17" spans="1:9" ht="54.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="19" t="s">
+      <c r="A17" s="17" t="s">
         <v>26</v>
       </c>
       <c r="B17" s="7" t="s">
@@ -1778,7 +1780,7 @@
       <c r="I17" s="9"/>
     </row>
     <row r="18" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="20" t="s">
+      <c r="A18" s="18" t="s">
         <v>37</v>
       </c>
       <c r="B18" s="7" t="s">
@@ -1802,8 +1804,8 @@
       <c r="H18" s="13"/>
     </row>
     <row r="19" spans="1:9" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="20" t="s">
-        <v>52</v>
+      <c r="A19" s="18" t="s">
+        <v>51</v>
       </c>
       <c r="B19" s="7" t="s">
         <v>33</v>
@@ -1826,7 +1828,7 @@
       <c r="H19" s="13"/>
     </row>
     <row r="20" spans="1:9" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="25" t="s">
+      <c r="A20" s="22" t="s">
         <v>32</v>
       </c>
       <c r="B20" s="8" t="s">

--- a/MasterDegree_StudyPlan.xlsx
+++ b/MasterDegree_StudyPlan.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\GitHub\Repo\Master-courses\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C9CC177-A137-4FFF-A899-A5734CD054BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7ADC5C4-7EDA-4A70-84C2-BE7370A38012}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9CCEDFCE-005C-40C2-92E8-4E076261F21E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="60">
   <si>
     <t>Computability</t>
   </si>
@@ -77,9 +77,6 @@
     <t>Major</t>
   </si>
   <si>
-    <t>Written + oral</t>
-  </si>
-  <si>
     <t>Mobile programming and multimedia</t>
   </si>
   <si>
@@ -135,9 +132,6 @@
   </si>
   <si>
     <t>Final exam</t>
-  </si>
-  <si>
-    <t>Davide Bresolin</t>
   </si>
   <si>
     <t>Advanced algorithms</t>
@@ -183,9 +177,6 @@
     <t>ATTENDING</t>
   </si>
   <si>
-    <t>Free choice (6/12 ETCS)</t>
-  </si>
-  <si>
     <t>Game Theory</t>
   </si>
   <si>
@@ -218,12 +209,6 @@
     <t>Other training activities</t>
   </si>
   <si>
-    <t>CHOOSE A COURSE</t>
-  </si>
-  <si>
-    <t>Law and data?</t>
-  </si>
-  <si>
     <t>Team project + written</t>
   </si>
   <si>
@@ -231,6 +216,30 @@
   </si>
   <si>
     <t>Start-Up in ICT</t>
+  </si>
+  <si>
+    <t>Law and data</t>
+  </si>
+  <si>
+    <t>Internet of things and smart cities</t>
+  </si>
+  <si>
+    <t>Fiorella Dal Monte</t>
+  </si>
+  <si>
+    <t>Marco Giordani</t>
+  </si>
+  <si>
+    <t>Davide Bresolin Giovanni Da San Martino</t>
+  </si>
+  <si>
+    <t>Oral</t>
+  </si>
+  <si>
+    <t>Free choice</t>
+  </si>
+  <si>
+    <t>2/ 6 credits awarded</t>
   </si>
 </sst>
 </file>
@@ -326,7 +335,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -336,12 +345,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -475,7 +478,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -503,18 +506,12 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -527,12 +524,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -548,32 +539,35 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -947,7 +941,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>1098240</xdr:colOff>
+      <xdr:colOff>922980</xdr:colOff>
       <xdr:row>53</xdr:row>
       <xdr:rowOff>46602</xdr:rowOff>
     </xdr:to>
@@ -1365,13 +1359,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89E4B725-BD0D-4291-9550-3225AF05D5FC}">
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.109375" customWidth="1"/>
+    <col min="1" max="1" width="26.6640625" customWidth="1"/>
     <col min="2" max="2" width="23.109375" customWidth="1"/>
     <col min="3" max="3" width="24.109375" customWidth="1"/>
     <col min="4" max="4" width="31.109375" customWidth="1"/>
@@ -1385,36 +1379,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
+      <c r="A1" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="31"/>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
+      <c r="A2" s="25"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="31"/>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
+      <c r="A3" s="25"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
     </row>
     <row r="4" spans="1:11" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
@@ -1430,30 +1424,30 @@
         <v>7</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>8</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="J4" s="24" t="s">
-        <v>50</v>
+        <v>45</v>
+      </c>
+      <c r="J4" s="20" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="17" t="s">
-        <v>45</v>
+      <c r="A5" s="15" t="s">
+        <v>42</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>10</v>
@@ -1467,15 +1461,15 @@
       <c r="G5" s="7">
         <v>6</v>
       </c>
-      <c r="H5" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="J5" s="25" t="s">
-        <v>43</v>
+      <c r="H5" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5" s="21" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="15" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="7" t="s">
@@ -1496,26 +1490,26 @@
       <c r="G6" s="7">
         <v>6</v>
       </c>
-      <c r="H6" s="13" t="s">
-        <v>30</v>
+      <c r="H6" s="12" t="s">
+        <v>29</v>
       </c>
       <c r="I6" s="2"/>
-      <c r="J6" s="26" t="s">
-        <v>47</v>
+      <c r="J6" s="30" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="7" t="s">
         <v>16</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>17</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E7" s="7">
         <v>1</v>
@@ -1526,17 +1520,15 @@
       <c r="G7" s="7">
         <v>6</v>
       </c>
-      <c r="H7" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="J7" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="K7" s="23"/>
+      <c r="H7" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="J7" s="31"/>
+      <c r="K7" s="19"/>
     </row>
     <row r="8" spans="1:11" ht="61.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="18" t="s">
-        <v>35</v>
+      <c r="A8" s="16" t="s">
+        <v>33</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>3</v>
@@ -1544,7 +1536,7 @@
       <c r="C8" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="28" t="s">
+      <c r="D8" s="22" t="s">
         <v>10</v>
       </c>
       <c r="E8" s="7">
@@ -1556,13 +1548,13 @@
       <c r="G8" s="7">
         <v>6</v>
       </c>
-      <c r="H8" s="13" t="s">
-        <v>30</v>
+      <c r="H8" s="12" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="59.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="17" t="s">
-        <v>34</v>
+      <c r="A9" s="15" t="s">
+        <v>32</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>9</v>
@@ -1582,23 +1574,23 @@
       <c r="G9" s="7">
         <v>6</v>
       </c>
-      <c r="H9" s="13" t="s">
-        <v>30</v>
+      <c r="H9" s="12" t="s">
+        <v>29</v>
       </c>
       <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:11" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="7" t="s">
         <v>18</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>19</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="28" t="s">
-        <v>46</v>
+      <c r="D10" s="22" t="s">
+        <v>43</v>
       </c>
       <c r="E10" s="7">
         <v>1</v>
@@ -1609,256 +1601,269 @@
       <c r="G10" s="7">
         <v>6</v>
       </c>
-      <c r="H10" s="13" t="s">
-        <v>30</v>
+      <c r="H10" s="12" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="32" t="s">
-        <v>56</v>
-      </c>
-      <c r="B11" s="33" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11" s="33" t="s">
+      <c r="A11" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" s="7">
+        <v>1</v>
+      </c>
+      <c r="F11" s="7">
+        <v>2</v>
+      </c>
+      <c r="G11" s="7">
+        <v>6</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="64.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" s="10">
+        <v>1</v>
+      </c>
+      <c r="F12" s="10">
+        <v>2</v>
+      </c>
+      <c r="G12" s="10">
+        <v>6</v>
+      </c>
+      <c r="H12" s="13"/>
+      <c r="I12" s="2"/>
+    </row>
+    <row r="13" spans="1:11" ht="61.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="10">
+        <v>1</v>
+      </c>
+      <c r="F13" s="10">
+        <v>2</v>
+      </c>
+      <c r="G13" s="10">
+        <v>6</v>
+      </c>
+      <c r="H13" s="13"/>
+      <c r="J13" s="19"/>
+    </row>
+    <row r="14" spans="1:11" ht="61.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="7">
+        <v>2</v>
+      </c>
+      <c r="F14" s="7">
+        <v>1</v>
+      </c>
+      <c r="G14" s="7">
+        <v>6</v>
+      </c>
+      <c r="H14" s="12"/>
+      <c r="J14" s="19"/>
+    </row>
+    <row r="15" spans="1:11" ht="61.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="33" t="s">
+      <c r="B15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" s="7">
+        <v>2</v>
+      </c>
+      <c r="F15" s="7">
+        <v>1</v>
+      </c>
+      <c r="G15" s="7">
+        <v>6</v>
+      </c>
+      <c r="H15" s="12"/>
+      <c r="J15" s="19"/>
+    </row>
+    <row r="16" spans="1:11" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="E11" s="33">
+      <c r="C16" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="27">
+        <v>2</v>
+      </c>
+      <c r="F16" s="27">
         <v>1</v>
       </c>
-      <c r="F11" s="33">
+      <c r="G16" s="27">
+        <v>6</v>
+      </c>
+      <c r="H16" s="28"/>
+      <c r="J16" s="11"/>
+    </row>
+    <row r="17" spans="1:10" ht="58.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="27">
         <v>2</v>
       </c>
-      <c r="G11" s="33">
+      <c r="F17" s="27">
+        <v>1</v>
+      </c>
+      <c r="G17" s="27">
         <v>6</v>
       </c>
-      <c r="H11" s="34" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="64.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="E12" s="11">
-        <v>1</v>
-      </c>
-      <c r="F12" s="11">
+      <c r="H17" s="28"/>
+    </row>
+    <row r="18" spans="1:10" ht="54.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G12" s="11">
-        <v>6</v>
-      </c>
-      <c r="H12" s="14"/>
-      <c r="I12" s="2"/>
-    </row>
-    <row r="13" spans="1:11" ht="61.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="E13" s="11">
-        <v>1</v>
-      </c>
-      <c r="F13" s="11">
-        <v>2</v>
-      </c>
-      <c r="G13" s="11">
-        <v>6</v>
-      </c>
-      <c r="H13" s="14"/>
-      <c r="J13" s="23"/>
-    </row>
-    <row r="14" spans="1:11" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10">
-        <v>2</v>
-      </c>
-      <c r="F14" s="10">
-        <v>1</v>
-      </c>
-      <c r="G14" s="10">
-        <v>6</v>
-      </c>
-      <c r="H14" s="15"/>
-      <c r="J14" s="12"/>
-    </row>
-    <row r="15" spans="1:11" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="20"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10">
-        <v>2</v>
-      </c>
-      <c r="F15" s="10">
-        <v>1</v>
-      </c>
-      <c r="G15" s="10">
-        <v>6</v>
-      </c>
-      <c r="H15" s="15"/>
-    </row>
-    <row r="16" spans="1:11" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D16" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="E16" s="7">
-        <v>2</v>
-      </c>
-      <c r="F16" s="7">
-        <v>1</v>
-      </c>
-      <c r="G16" s="7">
-        <v>6</v>
-      </c>
-      <c r="H16" s="13"/>
-      <c r="J16" s="23"/>
-      <c r="K16" s="2"/>
-    </row>
-    <row r="17" spans="1:9" ht="54.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="7">
-        <v>2</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G17" s="7">
-        <v>3</v>
-      </c>
-      <c r="H17" s="13"/>
-      <c r="I17" s="9"/>
-    </row>
-    <row r="18" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>12</v>
-      </c>
       <c r="D18" s="7" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="E18" s="7">
         <v>2</v>
       </c>
-      <c r="F18" s="7">
-        <v>1</v>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
       </c>
       <c r="G18" s="7">
-        <v>6</v>
-      </c>
-      <c r="H18" s="13"/>
-    </row>
-    <row r="19" spans="1:9" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>33</v>
+        <v>3</v>
+      </c>
+      <c r="H18" s="12"/>
+      <c r="I18" s="9"/>
+    </row>
+    <row r="19" spans="1:10" ht="63" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" s="22" t="s">
+        <v>56</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>2</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E19" s="7">
         <v>2</v>
       </c>
-      <c r="F19" s="7">
-        <v>1</v>
+      <c r="F19" s="7" t="s">
+        <v>30</v>
       </c>
       <c r="G19" s="7">
         <v>6</v>
       </c>
-      <c r="H19" s="13"/>
-    </row>
-    <row r="20" spans="1:9" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="22" t="s">
-        <v>32</v>
+      <c r="H19" s="12"/>
+      <c r="J19" s="29" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="18" t="s">
+        <v>31</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C20" s="8" t="s">
         <v>2</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E20" s="8">
         <v>2</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G20" s="8">
         <v>33</v>
       </c>
-      <c r="H20" s="16"/>
-    </row>
-    <row r="21" spans="1:9" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H20" s="14"/>
+    </row>
+    <row r="21" spans="1:10" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G21" s="3">
         <f>SUBTOTAL(109,Tabella2[ETCS])</f>
@@ -1866,7 +1871,7 @@
       </c>
       <c r="H21" s="1"/>
     </row>
-    <row r="22" spans="1:9" ht="32.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="1:10" ht="32.4" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:H3"/>

--- a/MasterDegree_StudyPlan.xlsx
+++ b/MasterDegree_StudyPlan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\GitHub\Repo\Master-courses\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7ADC5C4-7EDA-4A70-84C2-BE7370A38012}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8910442-0B13-4A74-AA16-37260909C6BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9CCEDFCE-005C-40C2-92E8-4E076261F21E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="60">
   <si>
     <t>Computability</t>
   </si>
@@ -212,9 +212,6 @@
     <t>Team project + written</t>
   </si>
   <si>
-    <t>Report during the course + multiple choice final test</t>
-  </si>
-  <si>
     <t>Start-Up in ICT</t>
   </si>
   <si>
@@ -240,6 +237,9 @@
   </si>
   <si>
     <t>2/ 6 credits awarded</t>
+  </si>
+  <si>
+    <t>Two reports during the course + multiple choice final test</t>
   </si>
 </sst>
 </file>
@@ -478,7 +478,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -524,9 +524,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -548,6 +545,12 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -560,14 +563,8 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1359,8 +1356,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89E4B725-BD0D-4291-9550-3225AF05D5FC}">
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1379,36 +1376,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="25"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
+      <c r="A3" s="26"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
     </row>
     <row r="4" spans="1:11" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
@@ -1435,7 +1432,7 @@
       <c r="H4" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="J4" s="20" t="s">
+      <c r="J4" s="19" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1464,7 +1461,7 @@
       <c r="H5" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="J5" s="21" t="s">
+      <c r="J5" s="20" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1523,8 +1520,8 @@
       <c r="H7" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="J7" s="31"/>
-      <c r="K7" s="19"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="18"/>
     </row>
     <row r="8" spans="1:11" ht="61.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="16" t="s">
@@ -1536,7 +1533,7 @@
       <c r="C8" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="22" t="s">
+      <c r="D8" s="21" t="s">
         <v>10</v>
       </c>
       <c r="E8" s="7">
@@ -1589,7 +1586,7 @@
       <c r="C10" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="22" t="s">
+      <c r="D10" s="21" t="s">
         <v>43</v>
       </c>
       <c r="E10" s="7">
@@ -1607,7 +1604,7 @@
     </row>
     <row r="11" spans="1:11" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>39</v>
@@ -1632,32 +1629,34 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="64.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="E12" s="10">
+      <c r="E12" s="28">
         <v>1</v>
       </c>
-      <c r="F12" s="10">
+      <c r="F12" s="28">
         <v>2</v>
       </c>
-      <c r="G12" s="10">
+      <c r="G12" s="28">
         <v>6</v>
       </c>
-      <c r="H12" s="13"/>
+      <c r="H12" s="29" t="s">
+        <v>29</v>
+      </c>
       <c r="I12" s="2"/>
     </row>
     <row r="13" spans="1:11" ht="61.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="23" t="s">
+      <c r="A13" s="22" t="s">
         <v>22</v>
       </c>
       <c r="B13" s="10" t="s">
@@ -1666,7 +1665,7 @@
       <c r="C13" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="24" t="s">
+      <c r="D13" s="23" t="s">
         <v>37</v>
       </c>
       <c r="E13" s="10">
@@ -1679,7 +1678,7 @@
         <v>6</v>
       </c>
       <c r="H13" s="13"/>
-      <c r="J13" s="19"/>
+      <c r="J13" s="18"/>
     </row>
     <row r="14" spans="1:11" ht="61.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="16" t="s">
@@ -1704,7 +1703,7 @@
         <v>6</v>
       </c>
       <c r="H14" s="12"/>
-      <c r="J14" s="19"/>
+      <c r="J14" s="18"/>
     </row>
     <row r="15" spans="1:11" ht="61.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="16" t="s">
@@ -1716,8 +1715,8 @@
       <c r="C15" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="22" t="s">
-        <v>50</v>
+      <c r="D15" s="21" t="s">
+        <v>59</v>
       </c>
       <c r="E15" s="7">
         <v>2</v>
@@ -1729,56 +1728,56 @@
         <v>6</v>
       </c>
       <c r="H15" s="12"/>
-      <c r="J15" s="19"/>
+      <c r="J15" s="18"/>
     </row>
     <row r="16" spans="1:11" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="26" t="s">
+      <c r="A16" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="7">
+        <v>2</v>
+      </c>
+      <c r="F16" s="7">
+        <v>1</v>
+      </c>
+      <c r="G16" s="7">
+        <v>6</v>
+      </c>
+      <c r="H16" s="12"/>
+      <c r="J16" s="11"/>
+    </row>
+    <row r="17" spans="1:10" ht="58.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="B16" s="27" t="s">
+      <c r="B17" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C16" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="D16" s="27" t="s">
+      <c r="C17" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D17" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="27">
+      <c r="E17" s="7">
         <v>2</v>
       </c>
-      <c r="F16" s="27">
+      <c r="F17" s="7">
         <v>1</v>
       </c>
-      <c r="G16" s="27">
+      <c r="G17" s="7">
         <v>6</v>
       </c>
-      <c r="H16" s="28"/>
-      <c r="J16" s="11"/>
-    </row>
-    <row r="17" spans="1:10" ht="58.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="26" t="s">
-        <v>53</v>
-      </c>
-      <c r="B17" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="C17" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="D17" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="E17" s="27">
-        <v>2</v>
-      </c>
-      <c r="F17" s="27">
-        <v>1</v>
-      </c>
-      <c r="G17" s="27">
-        <v>6</v>
-      </c>
-      <c r="H17" s="28"/>
+      <c r="H17" s="12"/>
     </row>
     <row r="18" spans="1:10" ht="54.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="15" t="s">
@@ -1791,7 +1790,7 @@
         <v>2</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E18" s="7">
         <v>2</v>
@@ -1809,8 +1808,8 @@
       <c r="A19" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="B19" s="22" t="s">
-        <v>56</v>
+      <c r="B19" s="21" t="s">
+        <v>55</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>2</v>
@@ -1828,12 +1827,12 @@
         <v>6</v>
       </c>
       <c r="H19" s="12"/>
-      <c r="J19" s="29" t="s">
-        <v>59</v>
+      <c r="J19" s="24" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="18" t="s">
+      <c r="A20" s="17" t="s">
         <v>31</v>
       </c>
       <c r="B20" s="8" t="s">

--- a/MasterDegree_StudyPlan.xlsx
+++ b/MasterDegree_StudyPlan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\GitHub\Repo\Master-courses\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8910442-0B13-4A74-AA16-37260909C6BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65DBC2C5-FEEA-433E-A6DC-D39F7F87D68A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9CCEDFCE-005C-40C2-92E8-4E076261F21E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="60">
   <si>
     <t>Computability</t>
   </si>
@@ -478,7 +478,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -503,18 +503,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -539,32 +533,41 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1356,8 +1359,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89E4B725-BD0D-4291-9550-3225AF05D5FC}">
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1376,36 +1379,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
+      <c r="A2" s="23"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="26"/>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
+      <c r="A3" s="23"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
     </row>
     <row r="4" spans="1:11" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
@@ -1432,12 +1435,12 @@
       <c r="H4" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="J4" s="19" t="s">
+      <c r="J4" s="17" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="15" t="s">
+    <row r="5" spans="1:11" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="13" t="s">
         <v>42</v>
       </c>
       <c r="B5" s="7" t="s">
@@ -1458,15 +1461,15 @@
       <c r="G5" s="7">
         <v>6</v>
       </c>
-      <c r="H5" s="12" t="s">
+      <c r="H5" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="J5" s="20" t="s">
+      <c r="J5" s="18" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="13" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="7" t="s">
@@ -1487,16 +1490,16 @@
       <c r="G6" s="7">
         <v>6</v>
       </c>
-      <c r="H6" s="12" t="s">
+      <c r="H6" s="11" t="s">
         <v>29</v>
       </c>
       <c r="I6" s="2"/>
-      <c r="J6" s="30" t="s">
+      <c r="J6" s="22" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="14" t="s">
         <v>15</v>
       </c>
       <c r="B7" s="7" t="s">
@@ -1517,14 +1520,14 @@
       <c r="G7" s="7">
         <v>6</v>
       </c>
-      <c r="H7" s="12" t="s">
+      <c r="H7" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="J7" s="25"/>
-      <c r="K7" s="18"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="16"/>
     </row>
     <row r="8" spans="1:11" ht="61.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="14" t="s">
         <v>33</v>
       </c>
       <c r="B8" s="7" t="s">
@@ -1533,7 +1536,7 @@
       <c r="C8" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="21" t="s">
+      <c r="D8" s="19" t="s">
         <v>10</v>
       </c>
       <c r="E8" s="7">
@@ -1545,12 +1548,12 @@
       <c r="G8" s="7">
         <v>6</v>
       </c>
-      <c r="H8" s="12" t="s">
+      <c r="H8" s="11" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="59.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="13" t="s">
         <v>32</v>
       </c>
       <c r="B9" s="7" t="s">
@@ -1571,13 +1574,13 @@
       <c r="G9" s="7">
         <v>6</v>
       </c>
-      <c r="H9" s="12" t="s">
+      <c r="H9" s="11" t="s">
         <v>29</v>
       </c>
       <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:11" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="14" t="s">
         <v>17</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -1586,7 +1589,7 @@
       <c r="C10" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="21" t="s">
+      <c r="D10" s="19" t="s">
         <v>43</v>
       </c>
       <c r="E10" s="7">
@@ -1598,12 +1601,12 @@
       <c r="G10" s="7">
         <v>6</v>
       </c>
-      <c r="H10" s="12" t="s">
+      <c r="H10" s="11" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="13" t="s">
         <v>50</v>
       </c>
       <c r="B11" s="7" t="s">
@@ -1624,163 +1627,165 @@
       <c r="G11" s="7">
         <v>6</v>
       </c>
-      <c r="H11" s="12" t="s">
+      <c r="H11" s="11" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="64.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="27" t="s">
+      <c r="A12" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="28" t="s">
+      <c r="B12" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="28" t="s">
+      <c r="C12" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="28" t="s">
+      <c r="D12" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="E12" s="28">
+      <c r="E12" s="7">
         <v>1</v>
       </c>
-      <c r="F12" s="28">
+      <c r="F12" s="7">
         <v>2</v>
       </c>
-      <c r="G12" s="28">
+      <c r="G12" s="7">
         <v>6</v>
       </c>
-      <c r="H12" s="29" t="s">
+      <c r="H12" s="11" t="s">
         <v>29</v>
       </c>
       <c r="I12" s="2"/>
     </row>
     <row r="13" spans="1:11" ht="61.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="22" t="s">
+      <c r="A13" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="23" t="s">
+      <c r="D13" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="E13" s="10">
+      <c r="E13" s="25">
         <v>1</v>
       </c>
-      <c r="F13" s="10">
+      <c r="F13" s="25">
         <v>2</v>
       </c>
-      <c r="G13" s="10">
+      <c r="G13" s="25">
         <v>6</v>
       </c>
-      <c r="H13" s="13"/>
-      <c r="J13" s="18"/>
+      <c r="H13" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="J13" s="16"/>
     </row>
     <row r="14" spans="1:11" ht="61.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E14" s="29">
         <v>2</v>
       </c>
-      <c r="F14" s="7">
+      <c r="F14" s="29">
         <v>1</v>
       </c>
-      <c r="G14" s="7">
+      <c r="G14" s="29">
         <v>6</v>
       </c>
-      <c r="H14" s="12"/>
-      <c r="J14" s="18"/>
+      <c r="H14" s="30"/>
+      <c r="J14" s="16"/>
     </row>
     <row r="15" spans="1:11" ht="61.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="21" t="s">
+      <c r="D15" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="E15" s="7">
+      <c r="E15" s="29">
         <v>2</v>
       </c>
-      <c r="F15" s="7">
+      <c r="F15" s="29">
         <v>1</v>
       </c>
-      <c r="G15" s="7">
+      <c r="G15" s="29">
         <v>6</v>
       </c>
-      <c r="H15" s="12"/>
-      <c r="J15" s="18"/>
+      <c r="H15" s="30"/>
+      <c r="J15" s="16"/>
     </row>
     <row r="16" spans="1:11" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="16" t="s">
+      <c r="A16" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="7">
+      <c r="E16" s="29">
         <v>2</v>
       </c>
-      <c r="F16" s="7">
+      <c r="F16" s="29">
         <v>1</v>
       </c>
-      <c r="G16" s="7">
+      <c r="G16" s="29">
         <v>6</v>
       </c>
-      <c r="H16" s="12"/>
-      <c r="J16" s="11"/>
+      <c r="H16" s="30"/>
+      <c r="J16" s="10"/>
     </row>
     <row r="17" spans="1:10" ht="58.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="16" t="s">
+      <c r="A17" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="E17" s="7">
+      <c r="E17" s="29">
         <v>2</v>
       </c>
-      <c r="F17" s="7">
+      <c r="F17" s="29">
         <v>1</v>
       </c>
-      <c r="G17" s="7">
+      <c r="G17" s="29">
         <v>6</v>
       </c>
-      <c r="H17" s="12"/>
+      <c r="H17" s="30"/>
     </row>
     <row r="18" spans="1:10" ht="54.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="13" t="s">
         <v>25</v>
       </c>
       <c r="B18" s="7" t="s">
@@ -1801,14 +1806,14 @@
       <c r="G18" s="7">
         <v>3</v>
       </c>
-      <c r="H18" s="12"/>
+      <c r="H18" s="11"/>
       <c r="I18" s="9"/>
     </row>
     <row r="19" spans="1:10" ht="63" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="16" t="s">
+      <c r="A19" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="B19" s="21" t="s">
+      <c r="B19" s="19" t="s">
         <v>55</v>
       </c>
       <c r="C19" s="7" t="s">
@@ -1826,13 +1831,13 @@
       <c r="G19" s="7">
         <v>6</v>
       </c>
-      <c r="H19" s="12"/>
-      <c r="J19" s="24" t="s">
+      <c r="H19" s="11"/>
+      <c r="J19" s="20" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="17" t="s">
+      <c r="A20" s="15" t="s">
         <v>31</v>
       </c>
       <c r="B20" s="8" t="s">
@@ -1853,7 +1858,7 @@
       <c r="G20" s="8">
         <v>33</v>
       </c>
-      <c r="H20" s="14"/>
+      <c r="H20" s="12"/>
     </row>
     <row r="21" spans="1:10" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
